--- a/app/config/tables/MADTRIAL_FU_VIS/Forms/MADTRIAL_FU_VIS/MADTRIAL_FU_VIS.xlsx
+++ b/app/config/tables/MADTRIAL_FU_VIS/Forms/MADTRIAL_FU_VIS/MADTRIAL_FU_VIS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E728221D-3E5E-4961-A004-089F6830DA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -14,17 +15,23 @@
     <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
     <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="164">
   <si>
     <t>setting_name</t>
   </si>
@@ -146,21 +153,6 @@
     <t>MADtrail Follow-up Visita</t>
   </si>
   <si>
-    <t>present</t>
-  </si>
-  <si>
-    <t>absent</t>
-  </si>
-  <si>
-    <t>travelling</t>
-  </si>
-  <si>
-    <t>moved</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -209,12 +201,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>No one to provide informati on</t>
-  </si>
-  <si>
-    <t>select_one_dropdown</t>
-  </si>
-  <si>
     <t>VACCARD</t>
   </si>
   <si>
@@ -224,9 +210,6 @@
     <t>Other caretaker</t>
   </si>
   <si>
-    <t>seen vaccination card</t>
-  </si>
-  <si>
     <t>Not seen vaccination card</t>
   </si>
   <si>
@@ -374,9 +357,6 @@
     <t>CONSULTA</t>
   </si>
   <si>
-    <t>Has the child been brought for</t>
-  </si>
-  <si>
     <t>CONSULTADIA</t>
   </si>
   <si>
@@ -413,9 +393,6 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>Nao</t>
-  </si>
-  <si>
     <t>REACAOALT</t>
   </si>
   <si>
@@ -459,16 +436,103 @@
   </si>
   <si>
     <t>TEMPERATURA</t>
+  </si>
+  <si>
+    <t>Has the child been brought for consultation?</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Travelling</t>
+  </si>
+  <si>
+    <t>Moved</t>
+  </si>
+  <si>
+    <t>Died</t>
+  </si>
+  <si>
+    <t>No one to provide information</t>
+  </si>
+  <si>
+    <t>Seen vaccination card</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Dia 1</t>
+  </si>
+  <si>
+    <t>Dia 2</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Ausente</t>
+  </si>
+  <si>
+    <t>Viagem</t>
+  </si>
+  <si>
+    <t>Mudou</t>
+  </si>
+  <si>
+    <t>Faleceu</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Tutor</t>
+  </si>
+  <si>
+    <t>Outro(a)</t>
+  </si>
+  <si>
+    <t>Cartão visto</t>
+  </si>
+  <si>
+    <t>Cartão não visto</t>
+  </si>
+  <si>
+    <t>Não tem cartão</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>data('INFORMADOR') != '4'</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>data('ESTADOCRI') == '1'</t>
+  </si>
+  <si>
+    <t>Has the child lost its appetite?</t>
+  </si>
+  <si>
+    <t>Has the child had diarrhoea?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,21 +580,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -557,7 +619,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -576,13 +638,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -859,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -867,16 +930,16 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -896,7 +959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -904,7 +967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -912,7 +975,7 @@
         <v>270519</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -920,7 +983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -931,7 +994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -942,7 +1005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -953,7 +1016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -968,28 +1031,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.54296875" customWidth="1"/>
-    <col min="8" max="8" width="35.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -1018,870 +1081,808 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+      <c r="G8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+      <c r="H8" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
         <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>101</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H15" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
         <v>71</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H18" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" t="s">
         <v>76</v>
-      </c>
-      <c r="H21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
       </c>
       <c r="F24" t="s">
         <v>79</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="G28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
         <v>85</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G40" t="s">
         <v>87</v>
       </c>
-      <c r="H30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="H40" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>70</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
         <v>88</v>
       </c>
-      <c r="H33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D36" t="s">
+      <c r="G42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
       </c>
-      <c r="E36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G46" t="s">
         <v>90</v>
       </c>
-      <c r="H36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="H46" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>70</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" t="s">
         <v>99</v>
       </c>
-      <c r="H39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D45" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="H52" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
         <v>70</v>
       </c>
-      <c r="F45" t="s">
-        <v>94</v>
-      </c>
-      <c r="H45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D48" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D51" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D54" t="s">
-        <v>78</v>
-      </c>
       <c r="E54" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
         <v>100</v>
       </c>
-      <c r="H54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G54" t="s">
+        <v>101</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
         <v>70</v>
       </c>
-      <c r="F57" t="s">
-        <v>106</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B58" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D60" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" t="s">
-        <v>84</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="G65" t="s">
+        <v>135</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" t="s">
         <v>108</v>
       </c>
-      <c r="H60" t="s">
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F68" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D63" t="s">
-        <v>46</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="G68" t="s">
+        <v>110</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s">
+        <v>62</v>
+      </c>
+      <c r="F72" t="s">
+        <v>111</v>
+      </c>
+      <c r="G72" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>70</v>
       </c>
-      <c r="F63" t="s">
-        <v>110</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="E74" t="s">
+        <v>76</v>
+      </c>
+      <c r="F74" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B65" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D66" t="s">
-        <v>102</v>
-      </c>
-      <c r="F66" t="s">
-        <v>111</v>
-      </c>
-      <c r="H66" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B67" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D69" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" t="s">
-        <v>84</v>
-      </c>
-      <c r="F69" t="s">
-        <v>113</v>
-      </c>
-      <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B70" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B71" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D72" t="s">
-        <v>46</v>
-      </c>
-      <c r="E72" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="G75" t="s">
         <v>115</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H75" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B73" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B74" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D75" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" t="s">
-        <v>84</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="F81" t="s">
         <v>117</v>
       </c>
-      <c r="H75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B77" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D78" t="s">
-        <v>102</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="G81" t="s">
         <v>118</v>
       </c>
-      <c r="H78" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B79" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B80" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D81" t="s">
-        <v>46</v>
-      </c>
-      <c r="E81" t="s">
-        <v>70</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="H81" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" t="s">
+        <v>122</v>
+      </c>
+      <c r="G83" t="s">
+        <v>121</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" t="s">
         <v>120</v>
       </c>
-      <c r="H81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B82" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B83" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D84" t="s">
-        <v>78</v>
-      </c>
-      <c r="E84" t="s">
-        <v>84</v>
-      </c>
-      <c r="F84" t="s">
-        <v>122</v>
-      </c>
-      <c r="H84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B85" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G84" t="s">
+        <v>123</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D87" t="s">
-        <v>102</v>
-      </c>
-      <c r="F87" t="s">
-        <v>123</v>
-      </c>
-      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B88" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D90" t="s">
-        <v>46</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="G88" t="s">
         <v>125</v>
       </c>
-      <c r="F90" t="s">
+      <c r="H88" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" t="s">
+        <v>116</v>
+      </c>
+      <c r="F89" t="s">
         <v>126</v>
       </c>
-      <c r="H90" t="s">
+      <c r="G89" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H89" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B92" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92" t="s">
+        <v>128</v>
+      </c>
+      <c r="G92" t="s">
+        <v>129</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>103</v>
+        <v>41</v>
+      </c>
+      <c r="E93" t="s">
+        <v>116</v>
       </c>
       <c r="F93" t="s">
+        <v>130</v>
+      </c>
+      <c r="G93" t="s">
+        <v>131</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>133</v>
+      </c>
+      <c r="F96" t="s">
+        <v>134</v>
+      </c>
+      <c r="G96" t="s">
         <v>132</v>
       </c>
-      <c r="H93" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B94" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B95" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D96" t="s">
-        <v>103</v>
-      </c>
-      <c r="F96" t="s">
-        <v>130</v>
-      </c>
-      <c r="H96" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="H96" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D99" t="s">
-        <v>46</v>
-      </c>
-      <c r="E99" t="s">
-        <v>125</v>
-      </c>
-      <c r="F99" t="s">
-        <v>134</v>
-      </c>
-      <c r="H99" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B100" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B101" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D102" t="s">
-        <v>46</v>
-      </c>
-      <c r="E102" t="s">
-        <v>125</v>
-      </c>
-      <c r="F102" t="s">
-        <v>136</v>
-      </c>
-      <c r="H102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B103" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B104" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D105" t="s">
-        <v>46</v>
-      </c>
-      <c r="E105" t="s">
-        <v>125</v>
-      </c>
-      <c r="F105" t="s">
-        <v>138</v>
-      </c>
-      <c r="H105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B106" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B107" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D108" t="s">
-        <v>46</v>
-      </c>
-      <c r="E108" t="s">
-        <v>125</v>
-      </c>
-      <c r="F108" t="s">
-        <v>140</v>
-      </c>
-      <c r="H108" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B109" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B110" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D111" t="s">
-        <v>143</v>
-      </c>
-      <c r="F111" t="s">
-        <v>144</v>
-      </c>
-      <c r="H111" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B112" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1891,23 +1892,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1921,556 +1922,609 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
       <c r="D2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B6" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B8" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B9" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B10" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B11" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B12" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B13" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B14" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B15" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B16" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B17" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B18" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B19" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B20" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="10"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="10"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="10"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="10"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C92" s="10"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="10"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="10"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="10"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="10"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="10"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="10"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="10"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="10"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="10"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="10"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="10"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="10"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="10"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="10"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="10"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="10"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="10"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="10"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="10"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="10"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="10"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="10"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="10"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="10"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="10"/>
     </row>
   </sheetData>
@@ -2481,7 +2535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2489,13 +2543,13 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
@@ -2510,7 +2564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2518,15 +2572,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -2540,7 +2594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2561,7 +2615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2569,14 +2623,14 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -2587,210 +2641,210 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="9"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="9"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="9"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="9"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="9"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="9"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="9"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="9"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="9"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="9"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="9"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="9"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="9"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="9"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="9"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="9"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="9"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="9"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="9"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="F2:G92">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G92">
     <sortCondition ref="G2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_FU_VIS/Forms/MADTRIAL_FU_VIS/MADTRIAL_FU_VIS.xlsx
+++ b/app/config/tables/MADTRIAL_FU_VIS/Forms/MADTRIAL_FU_VIS/MADTRIAL_FU_VIS.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E728221D-3E5E-4961-A004-089F6830DA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
     <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="175">
   <si>
     <t>setting_name</t>
   </si>
@@ -306,9 +305,6 @@
     <t>Has the child had fever</t>
   </si>
   <si>
-    <t>PERAPPL</t>
-  </si>
-  <si>
     <t>FEBREDIA</t>
   </si>
   <si>
@@ -523,12 +519,48 @@
   </si>
   <si>
     <t>Has the child had diarrhoea?</t>
+  </si>
+  <si>
+    <t>data('DIARREIA')=='1'</t>
+  </si>
+  <si>
+    <t>data('VOMITO')=='1'</t>
+  </si>
+  <si>
+    <t>data('TOSSE')=='1'</t>
+  </si>
+  <si>
+    <t>data('PERAPPE')=='1'</t>
+  </si>
+  <si>
+    <t>PERAPPE</t>
+  </si>
+  <si>
+    <t>data('CHOROU')=='1'</t>
+  </si>
+  <si>
+    <t>data('FEBRE')=='1'</t>
+  </si>
+  <si>
+    <t>data('CONVULSAO')=='1'</t>
+  </si>
+  <si>
+    <t>data('CONSULTA')=='1'</t>
+  </si>
+  <si>
+    <t>data('REACAOVAC')=='1'</t>
+  </si>
+  <si>
+    <t>data('MEDICIN')=='1'</t>
+  </si>
+  <si>
+    <t>data('OUTROSIMP')=='1'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
@@ -642,10 +674,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -922,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -930,16 +962,16 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -959,7 +991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -967,7 +999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -975,7 +1007,7 @@
         <v>270519</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -983,7 +1015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -994,7 +1026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1005,7 +1037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1016,7 +1048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -1031,28 +1063,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.5703125" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.54296875" customWidth="1"/>
+    <col min="8" max="8" width="35.453125" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -1081,12 +1113,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>30</v>
       </c>
@@ -1100,9 +1132,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
         <v>49</v>
@@ -1114,17 +1146,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>41</v>
       </c>
@@ -1141,7 +1173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>41</v>
       </c>
@@ -1158,22 +1190,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
         <v>56</v>
@@ -1185,25 +1217,25 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" t="s">
         <v>158</v>
       </c>
-      <c r="C13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -1217,672 +1249,813 @@
         <v>64</v>
       </c>
       <c r="H15" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
         <v>95</v>
       </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+      <c r="H29" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
         <v>70</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E43" t="s">
         <v>76</v>
       </c>
-      <c r="F18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H43" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
         <v>41</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E47" t="s">
         <v>62</v>
       </c>
-      <c r="F22" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="F47" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
         <v>70</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E49" t="s">
         <v>76</v>
       </c>
-      <c r="F24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G49" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H49" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
         <v>41</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E53" t="s">
         <v>62</v>
       </c>
-      <c r="F28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F53" t="s">
+        <v>97</v>
+      </c>
+      <c r="G53" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" t="s">
         <v>76</v>
       </c>
-      <c r="F30" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="14" t="s">
+      <c r="F55" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" t="s">
+        <v>100</v>
+      </c>
+      <c r="H55" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G61" t="s">
+        <v>103</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
         <v>62</v>
       </c>
-      <c r="F34" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="F66" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" t="s">
         <v>76</v>
       </c>
-      <c r="F36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G36" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="14" t="s">
+      <c r="F68" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="H68" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" t="s">
+        <v>108</v>
+      </c>
+      <c r="G69" t="s">
+        <v>109</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
         <v>41</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E73" t="s">
         <v>62</v>
       </c>
-      <c r="F40" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" t="s">
-        <v>87</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
+      <c r="F73" t="s">
+        <v>110</v>
+      </c>
+      <c r="G73" t="s">
+        <v>111</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
         <v>70</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E75" t="s">
         <v>76</v>
       </c>
-      <c r="F42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="F75" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H75" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" t="s">
+        <v>113</v>
+      </c>
+      <c r="G76" t="s">
+        <v>114</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
         <v>41</v>
       </c>
-      <c r="E46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" t="s">
-        <v>89</v>
-      </c>
-      <c r="G46" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="E82" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" t="s">
+        <v>116</v>
+      </c>
+      <c r="G82" t="s">
+        <v>117</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D84" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" t="s">
+        <v>121</v>
+      </c>
+      <c r="G84" t="s">
+        <v>120</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
+        <v>94</v>
+      </c>
+      <c r="F85" t="s">
+        <v>119</v>
+      </c>
+      <c r="G85" t="s">
+        <v>122</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
-      </c>
-      <c r="G54" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" t="s">
-        <v>106</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" t="s">
-        <v>103</v>
-      </c>
-      <c r="G60" t="s">
-        <v>104</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>70</v>
-      </c>
-      <c r="E61" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" t="s">
-        <v>72</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" t="s">
-        <v>107</v>
-      </c>
-      <c r="G65" t="s">
-        <v>135</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" t="s">
-        <v>76</v>
-      </c>
-      <c r="F67" t="s">
-        <v>108</v>
-      </c>
-      <c r="G67" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>94</v>
-      </c>
-      <c r="F68" t="s">
-        <v>109</v>
-      </c>
-      <c r="G68" t="s">
-        <v>110</v>
-      </c>
-      <c r="H68" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" t="s">
-        <v>62</v>
-      </c>
-      <c r="F72" t="s">
-        <v>111</v>
-      </c>
-      <c r="G72" t="s">
-        <v>112</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
-        <v>70</v>
-      </c>
-      <c r="E74" t="s">
-        <v>76</v>
-      </c>
-      <c r="F74" t="s">
-        <v>113</v>
-      </c>
-      <c r="G74" t="s">
-        <v>72</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
-        <v>94</v>
-      </c>
-      <c r="F75" t="s">
-        <v>114</v>
-      </c>
-      <c r="G75" t="s">
-        <v>115</v>
-      </c>
-      <c r="H75" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" t="s">
-        <v>116</v>
-      </c>
-      <c r="F81" t="s">
-        <v>117</v>
-      </c>
-      <c r="G81" t="s">
-        <v>118</v>
-      </c>
-      <c r="H81" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>95</v>
-      </c>
-      <c r="F83" t="s">
-        <v>122</v>
-      </c>
-      <c r="G83" t="s">
-        <v>121</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>95</v>
-      </c>
-      <c r="F84" t="s">
-        <v>120</v>
-      </c>
-      <c r="G84" t="s">
-        <v>123</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" t="s">
-        <v>116</v>
-      </c>
-      <c r="F88" t="s">
-        <v>124</v>
-      </c>
-      <c r="G88" t="s">
-        <v>125</v>
-      </c>
-      <c r="H88" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D89" t="s">
         <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F89" t="s">
+        <v>123</v>
+      </c>
+      <c r="G89" t="s">
+        <v>124</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" t="s">
+        <v>125</v>
+      </c>
+      <c r="G90" t="s">
         <v>126</v>
       </c>
-      <c r="G89" t="s">
-        <v>127</v>
-      </c>
-      <c r="H89" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="H90" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>41</v>
-      </c>
-      <c r="E92" t="s">
-        <v>116</v>
-      </c>
-      <c r="F92" t="s">
-        <v>128</v>
-      </c>
-      <c r="G92" t="s">
-        <v>129</v>
-      </c>
-      <c r="H92" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
       <c r="D93" t="s">
         <v>41</v>
       </c>
       <c r="E93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F93" t="s">
+        <v>127</v>
+      </c>
+      <c r="G93" t="s">
+        <v>128</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D94" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" t="s">
+        <v>129</v>
+      </c>
+      <c r="G94" t="s">
         <v>130</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H94" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D97" t="s">
+        <v>132</v>
+      </c>
+      <c r="F97" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" t="s">
         <v>131</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="H97" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>133</v>
-      </c>
-      <c r="F96" t="s">
-        <v>134</v>
-      </c>
-      <c r="G96" t="s">
-        <v>132</v>
-      </c>
-      <c r="H96" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>160</v>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1892,23 +2065,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1922,7 +2095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1931,13 +2104,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1946,13 +2119,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1961,13 +2134,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1976,13 +2149,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1991,13 +2164,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -2009,10 +2182,10 @@
         <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2024,10 +2197,10 @@
         <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2039,10 +2212,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2051,30 +2224,30 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="str">
         <f>"2"</f>
@@ -2084,12 +2257,12 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" t="str">
         <f>"3"</f>
@@ -2099,10 +2272,10 @@
         <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2114,10 +2287,10 @@
         <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -2129,10 +2302,10 @@
         <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2144,10 +2317,10 @@
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -2159,10 +2332,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2174,12 +2347,12 @@
         <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" t="str">
         <f>"1"</f>
@@ -2189,12 +2362,12 @@
         <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" t="str">
         <f>"2"</f>
@@ -2204,327 +2377,327 @@
         <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B58" s="10"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B60" s="10"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B61" s="10"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B62" s="10"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="10"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="10"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="10"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="10"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="10"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B81" s="10"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B82" s="10"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B83" s="10"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B84" s="10"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C92" s="10"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B111" s="10"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B112" s="10"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="10"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="10"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="10"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B116" s="10"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B117" s="10"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B119" s="10"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B120" s="10"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B121" s="10"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B122" s="10"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B123" s="10"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B124" s="10"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B125" s="10"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B126" s="10"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B127" s="10"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B128" s="10"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B129" s="10"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B130" s="10"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B131" s="10"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B132" s="10"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B133" s="10"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B134" s="10"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B135" s="10"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B136" s="10"/>
     </row>
   </sheetData>
@@ -2535,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2543,13 +2716,13 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
@@ -2564,7 +2737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2572,15 +2745,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -2594,7 +2767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2615,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2623,14 +2796,14 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -2641,210 +2814,210 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="12"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="12"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B51" s="9"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B57" s="9"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B58" s="9"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B60" s="9"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B61" s="9"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B67" s="9"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B68" s="9"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B73" s="9"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B76" s="9"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B79" s="9"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="9"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B81" s="9"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="9"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="9"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B85" s="9"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="9"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B87" s="9"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="9"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B89" s="9"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="9"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B91" s="9"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B92" s="9"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B93" s="9"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B97" s="9"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B98" s="9"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B99" s="9"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B100" s="9"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B101" s="9"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B102" s="9"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B103" s="9"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B104" s="9"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B105" s="9"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B106" s="9"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B107" s="9"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B108" s="9"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B109" s="9"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B110" s="9"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B111" s="9"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B112" s="9"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="9"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="9"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B115" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G92">
+  <sortState ref="F2:G92">
     <sortCondition ref="G2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_FU_VIS/Forms/MADTRIAL_FU_VIS/MADTRIAL_FU_VIS.xlsx
+++ b/app/config/tables/MADTRIAL_FU_VIS/Forms/MADTRIAL_FU_VIS/MADTRIAL_FU_VIS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B020AC6F-83C3-425F-BAC4-EF5E529CAA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
     <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="174">
   <si>
     <t>setting_name</t>
   </si>
@@ -330,9 +331,6 @@
   </si>
   <si>
     <t>CONVULSAODIA</t>
-  </si>
-  <si>
-    <t>On whicg day?</t>
   </si>
   <si>
     <t>OUTROSIMP</t>
@@ -560,7 +558,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
@@ -674,10 +672,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -954,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -962,16 +960,16 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -991,7 +989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -999,7 +997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1005,7 @@
         <v>270519</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1013,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1037,7 +1035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1048,7 +1046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
@@ -1063,28 +1061,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.54296875" customWidth="1"/>
-    <col min="8" max="8" width="35.453125" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.5703125" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -1113,12 +1111,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>30</v>
       </c>
@@ -1132,7 +1130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>93</v>
       </c>
@@ -1146,17 +1144,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>41</v>
       </c>
@@ -1173,7 +1171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>41</v>
       </c>
@@ -1190,17 +1188,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>41</v>
       </c>
@@ -1217,25 +1215,25 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" t="s">
         <v>157</v>
       </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>61</v>
       </c>
@@ -1249,18 +1247,18 @@
         <v>64</v>
       </c>
       <c r="H15" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>94</v>
       </c>
@@ -1274,7 +1272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>70</v>
       </c>
@@ -1291,22 +1289,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>41</v>
       </c>
@@ -1323,15 +1321,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>70</v>
       </c>
@@ -1348,22 +1346,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>41</v>
       </c>
@@ -1380,15 +1378,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>81</v>
       </c>
@@ -1405,22 +1403,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>41</v>
       </c>
@@ -1428,24 +1426,24 @@
         <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G35" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>81</v>
       </c>
@@ -1462,22 +1460,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>41</v>
       </c>
@@ -1494,17 +1492,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>70</v>
       </c>
@@ -1521,24 +1519,24 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>47</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>41</v>
       </c>
@@ -1555,15 +1553,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>70</v>
       </c>
@@ -1580,22 +1578,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>41</v>
       </c>
@@ -1612,15 +1610,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>70</v>
       </c>
@@ -1631,28 +1629,28 @@
         <v>99</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H55" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>41</v>
       </c>
@@ -1660,38 +1658,38 @@
         <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H59" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
         <v>93</v>
       </c>
       <c r="F61" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" t="s">
         <v>102</v>
       </c>
-      <c r="G61" t="s">
-        <v>103</v>
-      </c>
       <c r="H61" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>70</v>
       </c>
@@ -1699,7 +1697,7 @@
         <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G62" t="s">
         <v>72</v>
@@ -1708,22 +1706,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>41</v>
       </c>
@@ -1731,24 +1729,24 @@
         <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H66" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>70</v>
       </c>
@@ -1756,7 +1754,7 @@
         <v>76</v>
       </c>
       <c r="F68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G68" t="s">
         <v>72</v>
@@ -1765,36 +1763,36 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>93</v>
       </c>
       <c r="F69" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" t="s">
         <v>108</v>
       </c>
-      <c r="G69" t="s">
-        <v>109</v>
-      </c>
       <c r="H69" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>41</v>
       </c>
@@ -1802,24 +1800,24 @@
         <v>62</v>
       </c>
       <c r="F73" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" t="s">
         <v>110</v>
       </c>
-      <c r="G73" t="s">
-        <v>111</v>
-      </c>
       <c r="H73" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>70</v>
       </c>
@@ -1827,7 +1825,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G75" t="s">
         <v>72</v>
@@ -1836,226 +1834,216 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>93</v>
       </c>
       <c r="F76" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" t="s">
         <v>113</v>
       </c>
-      <c r="G76" t="s">
-        <v>114</v>
-      </c>
       <c r="H76" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B80" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>41</v>
       </c>
       <c r="E82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F82" t="s">
         <v>115</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>116</v>
       </c>
-      <c r="G82" t="s">
-        <v>117</v>
-      </c>
       <c r="H82" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>94</v>
       </c>
       <c r="F84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G84" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>94</v>
       </c>
       <c r="F85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>41</v>
       </c>
       <c r="E89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F89" t="s">
+        <v>122</v>
+      </c>
+      <c r="G89" t="s">
         <v>123</v>
       </c>
-      <c r="G89" t="s">
-        <v>124</v>
-      </c>
       <c r="H89" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F90" t="s">
+        <v>124</v>
+      </c>
+      <c r="G90" t="s">
         <v>125</v>
       </c>
-      <c r="G90" t="s">
-        <v>126</v>
-      </c>
       <c r="H90" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>41</v>
       </c>
       <c r="E93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F93" t="s">
+        <v>126</v>
+      </c>
+      <c r="G93" t="s">
         <v>127</v>
       </c>
-      <c r="G93" t="s">
-        <v>128</v>
-      </c>
       <c r="H93" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>41</v>
       </c>
       <c r="E94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F94" t="s">
+        <v>128</v>
+      </c>
+      <c r="G94" t="s">
         <v>129</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" t="s">
+        <v>132</v>
+      </c>
+      <c r="G95" t="s">
         <v>130</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="H95" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B95" t="s">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B96" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D97" t="s">
-        <v>132</v>
-      </c>
-      <c r="F97" t="s">
-        <v>133</v>
-      </c>
-      <c r="G97" t="s">
-        <v>131</v>
-      </c>
-      <c r="H97" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B98" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B99" t="s">
-        <v>159</v>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2073,15 +2061,15 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2095,7 +2083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2104,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2119,13 +2107,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2134,13 +2122,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2149,13 +2137,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2164,13 +2152,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
@@ -2182,10 +2170,10 @@
         <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -2197,10 +2185,10 @@
         <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2212,10 +2200,10 @@
         <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2224,13 +2212,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2239,13 +2227,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -2257,10 +2245,10 @@
         <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -2272,10 +2260,10 @@
         <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2287,10 +2275,10 @@
         <v>65</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -2302,10 +2290,10 @@
         <v>66</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2317,10 +2305,10 @@
         <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -2332,10 +2320,10 @@
         <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2347,12 +2335,12 @@
         <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" t="str">
         <f>"1"</f>
@@ -2362,12 +2350,12 @@
         <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" t="str">
         <f>"2"</f>
@@ -2377,327 +2365,327 @@
         <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="10"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="10"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="10"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="10"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="10"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="10"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="10"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="10"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="10"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="10"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="10"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="10"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="10"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="10"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="10"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="10"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C92" s="10"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="10"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="10"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="10"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="10"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="10"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="10"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="10"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="10"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="10"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="10"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="10"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="10"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="10"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="10"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="10"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="10"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="10"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="10"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="10"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="10"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="10"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="10"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="10"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="10"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="10"/>
     </row>
   </sheetData>
@@ -2708,7 +2696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2716,13 +2704,13 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
@@ -2737,7 +2725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2745,15 +2733,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -2767,7 +2755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2788,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2796,14 +2784,14 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -2814,210 +2802,210 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="12"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="9"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="9"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="9"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="9"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="9"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="9"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="9"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="9"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="9"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="9"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="9"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="9"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="9"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="9"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="9"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="9"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="9"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="9"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="9"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="9"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="9"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="9"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="9"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="9"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="9"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="9"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="9"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="F2:G92">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G92">
     <sortCondition ref="G2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/config/tables/MADTRIAL_FU_VIS/Forms/MADTRIAL_FU_VIS/MADTRIAL_FU_VIS.xlsx
+++ b/app/config/tables/MADTRIAL_FU_VIS/Forms/MADTRIAL_FU_VIS/MADTRIAL_FU_VIS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9371A7AB-AC39-4595-8996-7A85B4BEC0A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC114A0A-C06D-4F91-9B6A-5DFDD443F6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -2186,9 +2186,6 @@
     <t>adate.diffInDays(data('DOB'), data('FEBAMAREL'))&lt;180 &amp;&amp; data('FEBAMAREL') != null &amp;&amp; data('FEBAMAREL') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsfebamarel') != '2' &amp;&amp; not(adate.monthUnknown(data('FEBAMAREL'))) &amp;&amp; not(adate.monthUnknown(data('DOB')))</t>
   </si>
   <si>
-    <t>MADtrail - Seguimento Visita</t>
-  </si>
-  <si>
     <t>MADtrial - Follow-up Visit</t>
   </si>
   <si>
@@ -3298,6 +3295,9 @@
   </si>
   <si>
     <t>(data('BRACOCRI')&gt;49 &amp;&amp; data('BRACOCRI')&lt;343 &amp;&amp; data('BRACOCRI')%2 == 0) || data('ESTADOCRI') != '1' || data('BRACOCRI') == 999</t>
+  </si>
+  <si>
+    <t>MADtrial - Seguimento Visita</t>
   </si>
 </sst>
 </file>
@@ -3803,9 +3803,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3866,10 +3866,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D5" t="s">
-        <v>716</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3880,7 +3880,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3983,18 +3983,18 @@
         <v>187</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I2" s="4"/>
       <c r="O2" s="26"/>
@@ -4023,7 +4023,7 @@
         <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -4037,7 +4037,7 @@
         <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I6" t="s">
         <v>144</v>
@@ -4048,7 +4048,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -4072,13 +4072,13 @@
     </row>
     <row r="10" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I10" s="4"/>
       <c r="O10" s="26"/>
@@ -4107,7 +4107,7 @@
         <v>147</v>
       </c>
       <c r="F13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G13" t="s">
         <v>44</v>
@@ -4121,7 +4121,7 @@
         <v>145</v>
       </c>
       <c r="F14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I14" t="s">
         <v>144</v>
@@ -4132,7 +4132,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -4156,13 +4156,13 @@
     </row>
     <row r="18" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I18" s="4"/>
       <c r="O18" s="26"/>
@@ -4191,7 +4191,7 @@
         <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -4205,7 +4205,7 @@
         <v>145</v>
       </c>
       <c r="F22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I22" t="s">
         <v>144</v>
@@ -4216,7 +4216,7 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
@@ -4240,13 +4240,13 @@
     </row>
     <row r="26" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I26" s="4"/>
       <c r="O26" s="26"/>
@@ -4261,10 +4261,10 @@
         <v>194</v>
       </c>
       <c r="G28" t="s">
+        <v>740</v>
+      </c>
+      <c r="H28" t="s">
         <v>741</v>
-      </c>
-      <c r="H28" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -4272,7 +4272,7 @@
         <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -4280,10 +4280,10 @@
         <v>194</v>
       </c>
       <c r="G30" t="s">
+        <v>736</v>
+      </c>
+      <c r="H30" t="s">
         <v>737</v>
-      </c>
-      <c r="H30" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -4296,10 +4296,10 @@
         <v>194</v>
       </c>
       <c r="G32" t="s">
+        <v>738</v>
+      </c>
+      <c r="H32" t="s">
         <v>739</v>
-      </c>
-      <c r="H32" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -4312,7 +4312,7 @@
         <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -4320,10 +4320,10 @@
         <v>194</v>
       </c>
       <c r="G35" t="s">
+        <v>786</v>
+      </c>
+      <c r="H35" t="s">
         <v>787</v>
-      </c>
-      <c r="H35" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -4336,10 +4336,10 @@
         <v>194</v>
       </c>
       <c r="G37" t="s">
+        <v>744</v>
+      </c>
+      <c r="H37" t="s">
         <v>745</v>
-      </c>
-      <c r="H37" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -4352,7 +4352,7 @@
         <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -4360,10 +4360,10 @@
         <v>194</v>
       </c>
       <c r="G40" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H40" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -4376,10 +4376,10 @@
         <v>194</v>
       </c>
       <c r="G42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H42" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -4392,10 +4392,10 @@
         <v>194</v>
       </c>
       <c r="G44" t="s">
+        <v>853</v>
+      </c>
+      <c r="H44" t="s">
         <v>854</v>
-      </c>
-      <c r="H44" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -4403,10 +4403,10 @@
         <v>194</v>
       </c>
       <c r="G45" t="s">
+        <v>804</v>
+      </c>
+      <c r="H45" t="s">
         <v>805</v>
-      </c>
-      <c r="H45" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -4414,10 +4414,10 @@
         <v>194</v>
       </c>
       <c r="G46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -4425,7 +4425,7 @@
         <v>129</v>
       </c>
       <c r="C47" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -4433,10 +4433,10 @@
         <v>194</v>
       </c>
       <c r="G48" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H48" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -4449,10 +4449,10 @@
         <v>194</v>
       </c>
       <c r="G50" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H50" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -4465,7 +4465,7 @@
         <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -4473,10 +4473,10 @@
         <v>194</v>
       </c>
       <c r="G53" t="s">
+        <v>911</v>
+      </c>
+      <c r="H53" t="s">
         <v>912</v>
-      </c>
-      <c r="H53" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -4489,10 +4489,10 @@
         <v>194</v>
       </c>
       <c r="G55" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H55" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -4508,13 +4508,13 @@
         <v>93</v>
       </c>
       <c r="F57" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G57" t="s">
+        <v>797</v>
+      </c>
+      <c r="H57" t="s">
         <v>798</v>
-      </c>
-      <c r="H57" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -4522,10 +4522,10 @@
         <v>145</v>
       </c>
       <c r="F58" t="s">
+        <v>844</v>
+      </c>
+      <c r="I58" t="s">
         <v>845</v>
-      </c>
-      <c r="I58" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -4538,7 +4538,7 @@
         <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -4551,13 +4551,13 @@
         <v>76</v>
       </c>
       <c r="F62" t="s">
+        <v>799</v>
+      </c>
+      <c r="G62" t="s">
         <v>800</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>801</v>
-      </c>
-      <c r="H62" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -4575,7 +4575,7 @@
         <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -4583,7 +4583,7 @@
         <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -4596,13 +4596,13 @@
         <v>77</v>
       </c>
       <c r="F68" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G68" t="s">
+        <v>894</v>
+      </c>
+      <c r="H68" t="s">
         <v>895</v>
-      </c>
-      <c r="H68" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -4610,7 +4610,7 @@
         <v>145</v>
       </c>
       <c r="F69" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -4639,7 +4639,7 @@
         <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -4665,13 +4665,13 @@
     </row>
     <row r="77" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B77" s="27" t="s">
         <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I77" s="4"/>
       <c r="O77" s="26"/>
@@ -4686,10 +4686,10 @@
         <v>194</v>
       </c>
       <c r="G79" t="s">
+        <v>740</v>
+      </c>
+      <c r="H79" t="s">
         <v>741</v>
-      </c>
-      <c r="H79" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -4697,7 +4697,7 @@
         <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -4705,10 +4705,10 @@
         <v>194</v>
       </c>
       <c r="G81" t="s">
+        <v>736</v>
+      </c>
+      <c r="H81" t="s">
         <v>737</v>
-      </c>
-      <c r="H81" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
@@ -4721,10 +4721,10 @@
         <v>194</v>
       </c>
       <c r="G83" t="s">
+        <v>738</v>
+      </c>
+      <c r="H83" t="s">
         <v>739</v>
-      </c>
-      <c r="H83" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -4737,7 +4737,7 @@
         <v>129</v>
       </c>
       <c r="C85" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -4745,10 +4745,10 @@
         <v>194</v>
       </c>
       <c r="G86" t="s">
+        <v>786</v>
+      </c>
+      <c r="H86" t="s">
         <v>787</v>
-      </c>
-      <c r="H86" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -4761,10 +4761,10 @@
         <v>194</v>
       </c>
       <c r="G88" t="s">
+        <v>744</v>
+      </c>
+      <c r="H88" t="s">
         <v>745</v>
-      </c>
-      <c r="H88" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
@@ -4777,7 +4777,7 @@
         <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -4785,10 +4785,10 @@
         <v>194</v>
       </c>
       <c r="G91" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H91" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -4801,10 +4801,10 @@
         <v>194</v>
       </c>
       <c r="G93" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H93" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -4817,10 +4817,10 @@
         <v>194</v>
       </c>
       <c r="G95" t="s">
+        <v>853</v>
+      </c>
+      <c r="H95" t="s">
         <v>854</v>
-      </c>
-      <c r="H95" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -4828,10 +4828,10 @@
         <v>194</v>
       </c>
       <c r="G96" t="s">
+        <v>804</v>
+      </c>
+      <c r="H96" t="s">
         <v>805</v>
-      </c>
-      <c r="H96" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -4839,10 +4839,10 @@
         <v>194</v>
       </c>
       <c r="G97" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H97" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -4850,7 +4850,7 @@
         <v>129</v>
       </c>
       <c r="C98" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -4858,10 +4858,10 @@
         <v>194</v>
       </c>
       <c r="G99" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H99" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -4874,10 +4874,10 @@
         <v>194</v>
       </c>
       <c r="G101" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H101" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -4890,7 +4890,7 @@
         <v>129</v>
       </c>
       <c r="C103" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -4898,10 +4898,10 @@
         <v>194</v>
       </c>
       <c r="G104" t="s">
+        <v>911</v>
+      </c>
+      <c r="H104" t="s">
         <v>912</v>
-      </c>
-      <c r="H104" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -4914,10 +4914,10 @@
         <v>194</v>
       </c>
       <c r="G106" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H106" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -4933,13 +4933,13 @@
         <v>93</v>
       </c>
       <c r="F108" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G108" t="s">
+        <v>797</v>
+      </c>
+      <c r="H108" t="s">
         <v>798</v>
-      </c>
-      <c r="H108" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -4947,10 +4947,10 @@
         <v>145</v>
       </c>
       <c r="F109" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I109" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -4963,7 +4963,7 @@
         <v>129</v>
       </c>
       <c r="C111" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -4976,13 +4976,13 @@
         <v>76</v>
       </c>
       <c r="F113" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G113" t="s">
+        <v>800</v>
+      </c>
+      <c r="H113" t="s">
         <v>801</v>
-      </c>
-      <c r="H113" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -5000,7 +5000,7 @@
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -5008,7 +5008,7 @@
         <v>129</v>
       </c>
       <c r="C117" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -5021,13 +5021,13 @@
         <v>77</v>
       </c>
       <c r="F119" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G119" t="s">
+        <v>894</v>
+      </c>
+      <c r="H119" t="s">
         <v>895</v>
-      </c>
-      <c r="H119" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -5035,7 +5035,7 @@
         <v>145</v>
       </c>
       <c r="F120" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -5064,7 +5064,7 @@
         <v>46</v>
       </c>
       <c r="F124" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G124" t="s">
         <v>45</v>
@@ -5090,13 +5090,13 @@
     </row>
     <row r="128" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B128" s="27" t="s">
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I128" s="4"/>
       <c r="O128" s="26"/>
@@ -5111,10 +5111,10 @@
         <v>194</v>
       </c>
       <c r="G130" t="s">
+        <v>740</v>
+      </c>
+      <c r="H130" t="s">
         <v>741</v>
-      </c>
-      <c r="H130" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
@@ -5122,7 +5122,7 @@
         <v>129</v>
       </c>
       <c r="C131" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
@@ -5130,10 +5130,10 @@
         <v>194</v>
       </c>
       <c r="G132" t="s">
+        <v>736</v>
+      </c>
+      <c r="H132" t="s">
         <v>737</v>
-      </c>
-      <c r="H132" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
@@ -5146,10 +5146,10 @@
         <v>194</v>
       </c>
       <c r="G134" t="s">
+        <v>738</v>
+      </c>
+      <c r="H134" t="s">
         <v>739</v>
-      </c>
-      <c r="H134" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
@@ -5162,7 +5162,7 @@
         <v>129</v>
       </c>
       <c r="C136" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
@@ -5170,10 +5170,10 @@
         <v>194</v>
       </c>
       <c r="G137" t="s">
+        <v>786</v>
+      </c>
+      <c r="H137" t="s">
         <v>787</v>
-      </c>
-      <c r="H137" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
@@ -5186,10 +5186,10 @@
         <v>194</v>
       </c>
       <c r="G139" t="s">
+        <v>744</v>
+      </c>
+      <c r="H139" t="s">
         <v>745</v>
-      </c>
-      <c r="H139" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
@@ -5202,7 +5202,7 @@
         <v>129</v>
       </c>
       <c r="C141" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
@@ -5210,10 +5210,10 @@
         <v>194</v>
       </c>
       <c r="G142" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H142" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
@@ -5226,10 +5226,10 @@
         <v>194</v>
       </c>
       <c r="G144" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H144" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
@@ -5242,10 +5242,10 @@
         <v>194</v>
       </c>
       <c r="G146" t="s">
+        <v>853</v>
+      </c>
+      <c r="H146" t="s">
         <v>854</v>
-      </c>
-      <c r="H146" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
@@ -5253,10 +5253,10 @@
         <v>194</v>
       </c>
       <c r="G147" t="s">
+        <v>804</v>
+      </c>
+      <c r="H147" t="s">
         <v>805</v>
-      </c>
-      <c r="H147" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
@@ -5264,10 +5264,10 @@
         <v>194</v>
       </c>
       <c r="G148" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H148" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
@@ -5275,7 +5275,7 @@
         <v>129</v>
       </c>
       <c r="C149" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
@@ -5283,10 +5283,10 @@
         <v>194</v>
       </c>
       <c r="G150" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H150" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
@@ -5299,10 +5299,10 @@
         <v>194</v>
       </c>
       <c r="G152" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H152" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
@@ -5315,7 +5315,7 @@
         <v>129</v>
       </c>
       <c r="C154" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
@@ -5323,10 +5323,10 @@
         <v>194</v>
       </c>
       <c r="G155" t="s">
+        <v>911</v>
+      </c>
+      <c r="H155" t="s">
         <v>912</v>
-      </c>
-      <c r="H155" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
@@ -5339,10 +5339,10 @@
         <v>194</v>
       </c>
       <c r="G157" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H157" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
@@ -5358,13 +5358,13 @@
         <v>93</v>
       </c>
       <c r="F159" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G159" t="s">
+        <v>797</v>
+      </c>
+      <c r="H159" t="s">
         <v>798</v>
-      </c>
-      <c r="H159" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
@@ -5372,10 +5372,10 @@
         <v>145</v>
       </c>
       <c r="F160" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I160" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
@@ -5388,7 +5388,7 @@
         <v>129</v>
       </c>
       <c r="C162" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
@@ -5401,13 +5401,13 @@
         <v>76</v>
       </c>
       <c r="F164" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G164" t="s">
+        <v>800</v>
+      </c>
+      <c r="H164" t="s">
         <v>801</v>
-      </c>
-      <c r="H164" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
@@ -5425,7 +5425,7 @@
         <v>129</v>
       </c>
       <c r="C167" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
@@ -5433,7 +5433,7 @@
         <v>129</v>
       </c>
       <c r="C168" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
@@ -5446,13 +5446,13 @@
         <v>77</v>
       </c>
       <c r="F170" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G170" t="s">
+        <v>905</v>
+      </c>
+      <c r="H170" t="s">
         <v>906</v>
-      </c>
-      <c r="H170" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
@@ -5460,7 +5460,7 @@
         <v>145</v>
       </c>
       <c r="F171" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -5489,7 +5489,7 @@
         <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G175" t="s">
         <v>45</v>
@@ -5518,12 +5518,12 @@
         <v>129</v>
       </c>
       <c r="C179" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
@@ -5541,7 +5541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BD2D90-2DF4-4696-A416-5A200C7AA064}">
   <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K174" sqref="K174"/>
     </sheetView>
@@ -5595,7 +5595,7 @@
         <v>21</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>182</v>
@@ -5635,7 +5635,7 @@
         <v>171</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -5643,7 +5643,7 @@
         <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -5652,16 +5652,16 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F5" t="s">
+        <v>876</v>
+      </c>
+      <c r="G5" t="s">
+        <v>878</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="G5" t="s">
-        <v>879</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -5669,45 +5669,45 @@
         <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
+        <v>886</v>
+      </c>
+      <c r="E7" t="s">
+        <v>766</v>
+      </c>
+      <c r="F7" t="s">
         <v>887</v>
       </c>
-      <c r="E7" t="s">
-        <v>767</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>888</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>889</v>
-      </c>
-      <c r="H7" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E8" t="s">
+        <v>890</v>
+      </c>
+      <c r="F8" t="s">
+        <v>730</v>
+      </c>
+      <c r="G8" t="s">
         <v>891</v>
       </c>
-      <c r="F8" t="s">
-        <v>731</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>892</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" s="26" t="s">
         <v>893</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -5715,13 +5715,13 @@
         <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G9" t="s">
+        <v>894</v>
+      </c>
+      <c r="H9" t="s">
         <v>895</v>
-      </c>
-      <c r="H9" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5729,10 +5729,10 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
+        <v>896</v>
+      </c>
+      <c r="F10" t="s">
         <v>897</v>
-      </c>
-      <c r="F10" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -5740,7 +5740,7 @@
         <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -5748,7 +5748,7 @@
         <v>145</v>
       </c>
       <c r="F12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I12">
         <v>9999</v>
@@ -5759,13 +5759,13 @@
         <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="H13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -5784,7 +5784,7 @@
         <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -5796,13 +5796,13 @@
         <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L17" t="s">
         <v>189</v>
@@ -5828,7 +5828,7 @@
         <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -5846,7 +5846,7 @@
         <v>159</v>
       </c>
       <c r="K21" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L21" t="s">
         <v>189</v>
@@ -5866,7 +5866,7 @@
         <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -5875,10 +5875,10 @@
         <v>145</v>
       </c>
       <c r="F24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
@@ -5892,7 +5892,7 @@
         <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -5901,10 +5901,10 @@
         <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -5918,7 +5918,7 @@
         <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -5927,10 +5927,10 @@
         <v>145</v>
       </c>
       <c r="F30" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -5950,7 +5950,7 @@
         <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -6000,7 +6000,7 @@
         <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -6008,16 +6008,16 @@
         <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F40" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G40" t="s">
+        <v>820</v>
+      </c>
+      <c r="H40" t="s">
         <v>821</v>
-      </c>
-      <c r="H40" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -6030,16 +6030,16 @@
         <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F42" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G42" t="s">
+        <v>744</v>
+      </c>
+      <c r="H42" t="s">
         <v>745</v>
-      </c>
-      <c r="H42" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -6052,7 +6052,7 @@
         <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -6060,10 +6060,10 @@
         <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K45" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L45" t="s">
         <v>189</v>
@@ -6119,7 +6119,7 @@
         <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -6133,7 +6133,7 @@
         <v>557</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -6156,7 +6156,7 @@
         <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -6169,10 +6169,10 @@
         <v>194</v>
       </c>
       <c r="G59" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H59" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -6180,7 +6180,7 @@
         <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -6188,16 +6188,16 @@
         <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F61" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G61" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H61" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -6205,7 +6205,7 @@
         <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -6213,22 +6213,22 @@
         <v>77</v>
       </c>
       <c r="F63" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G63" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H63" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K63" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L63" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -6248,7 +6248,7 @@
         <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M66" s="2"/>
     </row>
@@ -6257,16 +6257,16 @@
         <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F67" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G67" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H67" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="M67" s="2"/>
     </row>
@@ -6275,7 +6275,7 @@
         <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="M68" s="2"/>
     </row>
@@ -6284,22 +6284,22 @@
         <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G69" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H69" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K69" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L69" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="P69" t="s">
         <v>181</v>
@@ -6335,10 +6335,10 @@
         <v>194</v>
       </c>
       <c r="G75" t="s">
+        <v>783</v>
+      </c>
+      <c r="H75" t="s">
         <v>784</v>
-      </c>
-      <c r="H75" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -6355,7 +6355,7 @@
         <v>55</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -6375,7 +6375,7 @@
         <v>59</v>
       </c>
       <c r="E79" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F79" t="s">
         <v>60</v>
@@ -6384,10 +6384,10 @@
         <v>61</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J79" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
@@ -6413,10 +6413,10 @@
         <v>194</v>
       </c>
       <c r="G83" t="s">
+        <v>783</v>
+      </c>
+      <c r="H83" t="s">
         <v>784</v>
-      </c>
-      <c r="H83" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -6433,7 +6433,7 @@
         <v>63</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -6450,7 +6450,7 @@
         <v>59</v>
       </c>
       <c r="E86" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F86" t="s">
         <v>64</v>
@@ -6459,10 +6459,10 @@
         <v>61</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J86" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -6485,10 +6485,10 @@
         <v>194</v>
       </c>
       <c r="G90" t="s">
+        <v>783</v>
+      </c>
+      <c r="H90" t="s">
         <v>784</v>
-      </c>
-      <c r="H90" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -6505,7 +6505,7 @@
         <v>78</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -6521,7 +6521,7 @@
         <v>66</v>
       </c>
       <c r="E93" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F93" t="s">
         <v>67</v>
@@ -6530,10 +6530,10 @@
         <v>61</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J93" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -6556,10 +6556,10 @@
         <v>194</v>
       </c>
       <c r="G97" t="s">
+        <v>783</v>
+      </c>
+      <c r="H97" t="s">
         <v>784</v>
-      </c>
-      <c r="H97" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="98" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6576,7 +6576,7 @@
         <v>105</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
@@ -6584,7 +6584,7 @@
         <v>129</v>
       </c>
       <c r="C99" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -6592,19 +6592,19 @@
         <v>66</v>
       </c>
       <c r="E100" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G100" t="s">
         <v>61</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J100" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -6627,10 +6627,10 @@
         <v>194</v>
       </c>
       <c r="G104" t="s">
+        <v>783</v>
+      </c>
+      <c r="H104" t="s">
         <v>784</v>
-      </c>
-      <c r="H104" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -6647,7 +6647,7 @@
         <v>68</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -6664,7 +6664,7 @@
         <v>66</v>
       </c>
       <c r="E107" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F107" t="s">
         <v>69</v>
@@ -6673,10 +6673,10 @@
         <v>61</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J107" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
@@ -6699,10 +6699,10 @@
         <v>194</v>
       </c>
       <c r="G111" t="s">
+        <v>783</v>
+      </c>
+      <c r="H111" t="s">
         <v>784</v>
-      </c>
-      <c r="H111" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
@@ -6719,7 +6719,7 @@
         <v>71</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
@@ -6737,7 +6737,7 @@
         <v>59</v>
       </c>
       <c r="E114" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F114" t="s">
         <v>72</v>
@@ -6746,10 +6746,10 @@
         <v>61</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J114" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
@@ -6774,10 +6774,10 @@
         <v>194</v>
       </c>
       <c r="G118" t="s">
+        <v>783</v>
+      </c>
+      <c r="H118" t="s">
         <v>784</v>
-      </c>
-      <c r="H118" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
@@ -6811,7 +6811,7 @@
         <v>59</v>
       </c>
       <c r="E121" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F121" t="s">
         <v>74</v>
@@ -6820,10 +6820,10 @@
         <v>61</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J121" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
@@ -6846,10 +6846,10 @@
         <v>194</v>
       </c>
       <c r="G125" t="s">
+        <v>783</v>
+      </c>
+      <c r="H125" t="s">
         <v>784</v>
-      </c>
-      <c r="H125" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
@@ -6866,7 +6866,7 @@
         <v>174</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
@@ -6883,7 +6883,7 @@
         <v>59</v>
       </c>
       <c r="E128" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F128" t="s">
         <v>80</v>
@@ -6892,10 +6892,10 @@
         <v>61</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J128" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
@@ -6918,10 +6918,10 @@
         <v>194</v>
       </c>
       <c r="G132" t="s">
+        <v>783</v>
+      </c>
+      <c r="H132" t="s">
         <v>784</v>
-      </c>
-      <c r="H132" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
@@ -6938,7 +6938,7 @@
         <v>84</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
@@ -6969,7 +6969,7 @@
         <v>59</v>
       </c>
       <c r="E136" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F136" t="s">
         <v>83</v>
@@ -6978,10 +6978,10 @@
         <v>61</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J136" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
@@ -7004,10 +7004,10 @@
         <v>194</v>
       </c>
       <c r="G140" t="s">
+        <v>783</v>
+      </c>
+      <c r="H140" t="s">
         <v>784</v>
-      </c>
-      <c r="H140" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
@@ -7041,7 +7041,7 @@
         <v>59</v>
       </c>
       <c r="E143" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F143" t="s">
         <v>86</v>
@@ -7050,10 +7050,10 @@
         <v>61</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J143" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
@@ -7107,10 +7107,10 @@
         <v>194</v>
       </c>
       <c r="G149" t="s">
+        <v>783</v>
+      </c>
+      <c r="H149" t="s">
         <v>784</v>
-      </c>
-      <c r="H149" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
@@ -7127,7 +7127,7 @@
         <v>90</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
@@ -7144,7 +7144,7 @@
         <v>59</v>
       </c>
       <c r="E152" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F152" t="s">
         <v>91</v>
@@ -7153,10 +7153,10 @@
         <v>61</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J152" s="26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
@@ -7170,7 +7170,7 @@
         <v>177</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
@@ -7206,10 +7206,10 @@
         <v>194</v>
       </c>
       <c r="G159" t="s">
+        <v>851</v>
+      </c>
+      <c r="H159" t="s">
         <v>852</v>
-      </c>
-      <c r="H159" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
@@ -7286,10 +7286,10 @@
         <v>194</v>
       </c>
       <c r="G167" t="s">
+        <v>851</v>
+      </c>
+      <c r="H167" t="s">
         <v>852</v>
-      </c>
-      <c r="H167" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="168" spans="2:16" x14ac:dyDescent="0.25">
@@ -7323,7 +7323,7 @@
         <v>103</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.25">
@@ -7360,10 +7360,10 @@
         <v>194</v>
       </c>
       <c r="G173" t="s">
+        <v>851</v>
+      </c>
+      <c r="H173" t="s">
         <v>852</v>
-      </c>
-      <c r="H173" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.25">
@@ -7371,22 +7371,22 @@
         <v>77</v>
       </c>
       <c r="F174" t="s">
+        <v>862</v>
+      </c>
+      <c r="G174" t="s">
         <v>863</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>864</v>
       </c>
-      <c r="H174" t="s">
+      <c r="K174" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L174" t="s">
         <v>865</v>
       </c>
-      <c r="K174" t="s">
-        <v>1074</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="M174" t="s">
         <v>866</v>
-      </c>
-      <c r="M174" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="175" spans="2:16" x14ac:dyDescent="0.25">
@@ -7415,7 +7415,7 @@
         <v>180</v>
       </c>
       <c r="O175" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="P175" t="s">
         <v>181</v>
@@ -7441,13 +7441,13 @@
         <v>76</v>
       </c>
       <c r="F179" t="s">
+        <v>903</v>
+      </c>
+      <c r="G179" t="s">
         <v>904</v>
       </c>
-      <c r="G179" t="s">
-        <v>905</v>
-      </c>
       <c r="H179" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
@@ -7524,7 +7524,7 @@
         <v>184</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -7557,7 +7557,7 @@
         <v>197</v>
       </c>
       <c r="J4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K4" t="s">
         <v>198</v>
@@ -7614,7 +7614,7 @@
         <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -7622,10 +7622,10 @@
         <v>194</v>
       </c>
       <c r="G11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -7676,7 +7676,7 @@
         <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K17" t="s">
         <v>198</v>
@@ -7755,7 +7755,7 @@
         <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K25" t="s">
         <v>212</v>
@@ -7772,7 +7772,7 @@
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F26" t="s">
         <v>214</v>
@@ -7783,7 +7783,7 @@
         <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -7794,7 +7794,7 @@
         <v>209</v>
       </c>
       <c r="I28" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -7807,7 +7807,7 @@
         <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -7836,7 +7836,7 @@
         <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -7844,10 +7844,10 @@
         <v>194</v>
       </c>
       <c r="G35" t="s">
+        <v>938</v>
+      </c>
+      <c r="H35" t="s">
         <v>939</v>
-      </c>
-      <c r="H35" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -7898,7 +7898,7 @@
         <v>209</v>
       </c>
       <c r="J41" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K41" t="s">
         <v>212</v>
@@ -7915,7 +7915,7 @@
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F42" t="s">
         <v>214</v>
@@ -7926,7 +7926,7 @@
         <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -7937,7 +7937,7 @@
         <v>209</v>
       </c>
       <c r="I44" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -7950,7 +7950,7 @@
         <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -8008,7 +8008,7 @@
         <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -8045,7 +8045,7 @@
         <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -8098,7 +8098,7 @@
         <v>197</v>
       </c>
       <c r="J63" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K63" t="s">
         <v>198</v>
@@ -8163,7 +8163,7 @@
         <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -8171,10 +8171,10 @@
         <v>194</v>
       </c>
       <c r="G71" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H71" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -8246,7 +8246,7 @@
         <v>196</v>
       </c>
       <c r="J80" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K80" t="s">
         <v>198</v>
@@ -8325,7 +8325,7 @@
         <v>211</v>
       </c>
       <c r="J88" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K88" t="s">
         <v>212</v>
@@ -8342,7 +8342,7 @@
         <v>59</v>
       </c>
       <c r="E89" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F89" t="s">
         <v>214</v>
@@ -8353,7 +8353,7 @@
         <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -8364,7 +8364,7 @@
         <v>209</v>
       </c>
       <c r="I91" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -8377,7 +8377,7 @@
         <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -8414,7 +8414,7 @@
         <v>129</v>
       </c>
       <c r="C98" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -8422,10 +8422,10 @@
         <v>194</v>
       </c>
       <c r="G99" t="s">
+        <v>938</v>
+      </c>
+      <c r="H99" t="s">
         <v>939</v>
-      </c>
-      <c r="H99" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -8497,7 +8497,7 @@
         <v>209</v>
       </c>
       <c r="J108" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K108" t="s">
         <v>212</v>
@@ -8514,7 +8514,7 @@
         <v>59</v>
       </c>
       <c r="E109" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F109" t="s">
         <v>214</v>
@@ -8525,7 +8525,7 @@
         <v>129</v>
       </c>
       <c r="C110" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -8536,7 +8536,7 @@
         <v>209</v>
       </c>
       <c r="I111" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -8549,7 +8549,7 @@
         <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -8619,7 +8619,7 @@
         <v>235</v>
       </c>
       <c r="J122" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K122" t="s">
         <v>236</v>
@@ -8676,7 +8676,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -8684,10 +8684,10 @@
         <v>194</v>
       </c>
       <c r="G129" t="s">
+        <v>941</v>
+      </c>
+      <c r="H129" t="s">
         <v>942</v>
-      </c>
-      <c r="H129" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -8738,7 +8738,7 @@
         <v>234</v>
       </c>
       <c r="J135" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K135" t="s">
         <v>236</v>
@@ -8817,7 +8817,7 @@
         <v>246</v>
       </c>
       <c r="J143" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K143" t="s">
         <v>247</v>
@@ -8898,7 +8898,7 @@
         <v>129</v>
       </c>
       <c r="C152" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -8906,10 +8906,10 @@
         <v>194</v>
       </c>
       <c r="G153" t="s">
+        <v>951</v>
+      </c>
+      <c r="H153" t="s">
         <v>952</v>
-      </c>
-      <c r="H153" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -8960,7 +8960,7 @@
         <v>245</v>
       </c>
       <c r="J159" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K159" t="s">
         <v>247</v>
@@ -9063,7 +9063,7 @@
         <v>259</v>
       </c>
       <c r="J170" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K170" t="s">
         <v>260</v>
@@ -9144,7 +9144,7 @@
         <v>129</v>
       </c>
       <c r="C179" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -9152,10 +9152,10 @@
         <v>194</v>
       </c>
       <c r="G180" t="s">
+        <v>960</v>
+      </c>
+      <c r="H180" t="s">
         <v>961</v>
-      </c>
-      <c r="H180" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
@@ -9206,7 +9206,7 @@
         <v>258</v>
       </c>
       <c r="J186" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K186" t="s">
         <v>260</v>
@@ -9309,7 +9309,7 @@
         <v>270</v>
       </c>
       <c r="J197" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K197" t="s">
         <v>271</v>
@@ -9390,7 +9390,7 @@
         <v>129</v>
       </c>
       <c r="C206" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.25">
@@ -9398,10 +9398,10 @@
         <v>194</v>
       </c>
       <c r="G207" t="s">
+        <v>972</v>
+      </c>
+      <c r="H207" t="s">
         <v>973</v>
-      </c>
-      <c r="H207" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="208" spans="2:13" x14ac:dyDescent="0.25">
@@ -9452,7 +9452,7 @@
         <v>269</v>
       </c>
       <c r="J213" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K213" t="s">
         <v>271</v>
@@ -9562,7 +9562,7 @@
         <v>129</v>
       </c>
       <c r="C226" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -9599,7 +9599,7 @@
         <v>129</v>
       </c>
       <c r="C230" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -9636,7 +9636,7 @@
         <v>129</v>
       </c>
       <c r="C234" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -9673,7 +9673,7 @@
         <v>129</v>
       </c>
       <c r="C238" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -9726,7 +9726,7 @@
         <v>235</v>
       </c>
       <c r="J243" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K243" t="s">
         <v>236</v>
@@ -9791,7 +9791,7 @@
         <v>129</v>
       </c>
       <c r="C250" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -9799,10 +9799,10 @@
         <v>194</v>
       </c>
       <c r="G251" t="s">
+        <v>941</v>
+      </c>
+      <c r="H251" t="s">
         <v>942</v>
-      </c>
-      <c r="H251" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -9874,7 +9874,7 @@
         <v>234</v>
       </c>
       <c r="J260" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K260" t="s">
         <v>236</v>
@@ -9953,7 +9953,7 @@
         <v>246</v>
       </c>
       <c r="J268" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K268" t="s">
         <v>247</v>
@@ -10042,7 +10042,7 @@
         <v>129</v>
       </c>
       <c r="C278" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.25">
@@ -10050,10 +10050,10 @@
         <v>194</v>
       </c>
       <c r="G279" t="s">
+        <v>951</v>
+      </c>
+      <c r="H279" t="s">
         <v>952</v>
-      </c>
-      <c r="H279" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="280" spans="2:13" x14ac:dyDescent="0.25">
@@ -10125,7 +10125,7 @@
         <v>245</v>
       </c>
       <c r="J288" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K288" t="s">
         <v>247</v>
@@ -10228,7 +10228,7 @@
         <v>259</v>
       </c>
       <c r="J299" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K299" t="s">
         <v>260</v>
@@ -10317,7 +10317,7 @@
         <v>129</v>
       </c>
       <c r="C309" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="310" spans="2:13" x14ac:dyDescent="0.25">
@@ -10325,10 +10325,10 @@
         <v>194</v>
       </c>
       <c r="G310" t="s">
+        <v>960</v>
+      </c>
+      <c r="H310" t="s">
         <v>961</v>
-      </c>
-      <c r="H310" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
@@ -10400,7 +10400,7 @@
         <v>258</v>
       </c>
       <c r="J319" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K319" t="s">
         <v>260</v>
@@ -10503,7 +10503,7 @@
         <v>270</v>
       </c>
       <c r="J330" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K330" t="s">
         <v>271</v>
@@ -10592,7 +10592,7 @@
         <v>129</v>
       </c>
       <c r="C340" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="341" spans="2:13" x14ac:dyDescent="0.25">
@@ -10600,10 +10600,10 @@
         <v>194</v>
       </c>
       <c r="G341" t="s">
+        <v>972</v>
+      </c>
+      <c r="H341" t="s">
         <v>973</v>
-      </c>
-      <c r="H341" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="342" spans="2:13" x14ac:dyDescent="0.25">
@@ -10675,7 +10675,7 @@
         <v>269</v>
       </c>
       <c r="J350" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K350" t="s">
         <v>271</v>
@@ -10797,7 +10797,7 @@
         <v>303</v>
       </c>
       <c r="J364" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K364" t="s">
         <v>304</v>
@@ -10854,7 +10854,7 @@
         <v>129</v>
       </c>
       <c r="C370" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="371" spans="2:13" x14ac:dyDescent="0.25">
@@ -10862,10 +10862,10 @@
         <v>194</v>
       </c>
       <c r="G371" t="s">
+        <v>943</v>
+      </c>
+      <c r="H371" t="s">
         <v>944</v>
-      </c>
-      <c r="H371" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="372" spans="2:13" x14ac:dyDescent="0.25">
@@ -10916,7 +10916,7 @@
         <v>302</v>
       </c>
       <c r="J377" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K377" t="s">
         <v>304</v>
@@ -10995,7 +10995,7 @@
         <v>313</v>
       </c>
       <c r="J385" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K385" t="s">
         <v>314</v>
@@ -11076,7 +11076,7 @@
         <v>129</v>
       </c>
       <c r="C394" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="395" spans="2:13" x14ac:dyDescent="0.25">
@@ -11084,10 +11084,10 @@
         <v>194</v>
       </c>
       <c r="G395" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H395" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="396" spans="2:13" x14ac:dyDescent="0.25">
@@ -11138,7 +11138,7 @@
         <v>312</v>
       </c>
       <c r="J401" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K401" t="s">
         <v>314</v>
@@ -11241,7 +11241,7 @@
         <v>326</v>
       </c>
       <c r="J412" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K412" t="s">
         <v>327</v>
@@ -11322,7 +11322,7 @@
         <v>129</v>
       </c>
       <c r="C421" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="422" spans="2:13" x14ac:dyDescent="0.25">
@@ -11330,10 +11330,10 @@
         <v>194</v>
       </c>
       <c r="G422" t="s">
+        <v>964</v>
+      </c>
+      <c r="H422" t="s">
         <v>965</v>
-      </c>
-      <c r="H422" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="423" spans="2:13" x14ac:dyDescent="0.25">
@@ -11384,7 +11384,7 @@
         <v>325</v>
       </c>
       <c r="J428" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K428" t="s">
         <v>327</v>
@@ -11487,7 +11487,7 @@
         <v>337</v>
       </c>
       <c r="J439" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K439" t="s">
         <v>338</v>
@@ -11568,7 +11568,7 @@
         <v>129</v>
       </c>
       <c r="C448" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="449" spans="2:13" x14ac:dyDescent="0.25">
@@ -11576,10 +11576,10 @@
         <v>194</v>
       </c>
       <c r="G449" t="s">
+        <v>969</v>
+      </c>
+      <c r="H449" t="s">
         <v>970</v>
-      </c>
-      <c r="H449" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="450" spans="2:13" x14ac:dyDescent="0.25">
@@ -11630,7 +11630,7 @@
         <v>336</v>
       </c>
       <c r="J455" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K455" t="s">
         <v>338</v>
@@ -11740,7 +11740,7 @@
         <v>129</v>
       </c>
       <c r="C468" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -11777,7 +11777,7 @@
         <v>129</v>
       </c>
       <c r="C472" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
@@ -11814,7 +11814,7 @@
         <v>129</v>
       </c>
       <c r="C476" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
@@ -11851,7 +11851,7 @@
         <v>129</v>
       </c>
       <c r="C480" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
@@ -12052,7 +12052,7 @@
         <v>303</v>
       </c>
       <c r="J501" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K501" t="s">
         <v>304</v>
@@ -12117,7 +12117,7 @@
         <v>129</v>
       </c>
       <c r="C508" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.25">
@@ -12125,10 +12125,10 @@
         <v>194</v>
       </c>
       <c r="G509" t="s">
+        <v>943</v>
+      </c>
+      <c r="H509" t="s">
         <v>944</v>
-      </c>
-      <c r="H509" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.25">
@@ -12200,7 +12200,7 @@
         <v>302</v>
       </c>
       <c r="J518" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K518" t="s">
         <v>304</v>
@@ -12279,7 +12279,7 @@
         <v>313</v>
       </c>
       <c r="J526" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K526" t="s">
         <v>314</v>
@@ -12368,7 +12368,7 @@
         <v>129</v>
       </c>
       <c r="C536" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="537" spans="2:9" x14ac:dyDescent="0.25">
@@ -12376,10 +12376,10 @@
         <v>194</v>
       </c>
       <c r="G537" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H537" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="538" spans="2:9" x14ac:dyDescent="0.25">
@@ -12451,7 +12451,7 @@
         <v>312</v>
       </c>
       <c r="J546" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K546" t="s">
         <v>314</v>
@@ -12554,7 +12554,7 @@
         <v>326</v>
       </c>
       <c r="J557" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K557" t="s">
         <v>327</v>
@@ -12643,7 +12643,7 @@
         <v>129</v>
       </c>
       <c r="C567" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="568" spans="2:9" x14ac:dyDescent="0.25">
@@ -12651,10 +12651,10 @@
         <v>194</v>
       </c>
       <c r="G568" t="s">
+        <v>964</v>
+      </c>
+      <c r="H568" t="s">
         <v>965</v>
-      </c>
-      <c r="H568" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="569" spans="2:9" x14ac:dyDescent="0.25">
@@ -12726,7 +12726,7 @@
         <v>325</v>
       </c>
       <c r="J577" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K577" t="s">
         <v>327</v>
@@ -12829,7 +12829,7 @@
         <v>337</v>
       </c>
       <c r="J588" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K588" t="s">
         <v>338</v>
@@ -12918,7 +12918,7 @@
         <v>129</v>
       </c>
       <c r="C598" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="599" spans="2:13" x14ac:dyDescent="0.25">
@@ -12926,10 +12926,10 @@
         <v>194</v>
       </c>
       <c r="G599" t="s">
+        <v>969</v>
+      </c>
+      <c r="H599" t="s">
         <v>970</v>
-      </c>
-      <c r="H599" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="600" spans="2:13" x14ac:dyDescent="0.25">
@@ -13001,7 +13001,7 @@
         <v>336</v>
       </c>
       <c r="J608" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K608" t="s">
         <v>338</v>
@@ -13123,7 +13123,7 @@
         <v>382</v>
       </c>
       <c r="J622" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K622" t="s">
         <v>383</v>
@@ -13180,7 +13180,7 @@
         <v>129</v>
       </c>
       <c r="C628" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="629" spans="2:13" x14ac:dyDescent="0.25">
@@ -13188,10 +13188,10 @@
         <v>194</v>
       </c>
       <c r="G629" t="s">
+        <v>948</v>
+      </c>
+      <c r="H629" t="s">
         <v>949</v>
-      </c>
-      <c r="H629" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="630" spans="2:13" x14ac:dyDescent="0.25">
@@ -13242,7 +13242,7 @@
         <v>381</v>
       </c>
       <c r="J635" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K635" t="s">
         <v>383</v>
@@ -13321,7 +13321,7 @@
         <v>392</v>
       </c>
       <c r="J643" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K643" t="s">
         <v>393</v>
@@ -13402,7 +13402,7 @@
         <v>129</v>
       </c>
       <c r="C652" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="653" spans="2:13" x14ac:dyDescent="0.25">
@@ -13410,10 +13410,10 @@
         <v>194</v>
       </c>
       <c r="G653" t="s">
+        <v>956</v>
+      </c>
+      <c r="H653" t="s">
         <v>957</v>
-      </c>
-      <c r="H653" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="654" spans="2:13" x14ac:dyDescent="0.25">
@@ -13464,7 +13464,7 @@
         <v>391</v>
       </c>
       <c r="J659" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K659" t="s">
         <v>393</v>
@@ -13567,7 +13567,7 @@
         <v>405</v>
       </c>
       <c r="J670" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K670" t="s">
         <v>406</v>
@@ -13648,7 +13648,7 @@
         <v>129</v>
       </c>
       <c r="C679" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="680" spans="2:13" x14ac:dyDescent="0.25">
@@ -13656,10 +13656,10 @@
         <v>194</v>
       </c>
       <c r="G680" t="s">
+        <v>966</v>
+      </c>
+      <c r="H680" t="s">
         <v>967</v>
-      </c>
-      <c r="H680" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="681" spans="2:13" x14ac:dyDescent="0.25">
@@ -13710,7 +13710,7 @@
         <v>404</v>
       </c>
       <c r="J686" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K686" t="s">
         <v>414</v>
@@ -13813,7 +13813,7 @@
         <v>417</v>
       </c>
       <c r="J697" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K697" t="s">
         <v>418</v>
@@ -13894,7 +13894,7 @@
         <v>129</v>
       </c>
       <c r="C706" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="707" spans="2:13" x14ac:dyDescent="0.25">
@@ -13902,10 +13902,10 @@
         <v>194</v>
       </c>
       <c r="G707" t="s">
+        <v>975</v>
+      </c>
+      <c r="H707" t="s">
         <v>976</v>
-      </c>
-      <c r="H707" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="708" spans="2:13" x14ac:dyDescent="0.25">
@@ -13956,7 +13956,7 @@
         <v>417</v>
       </c>
       <c r="J713" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K713" t="s">
         <v>418</v>
@@ -14066,7 +14066,7 @@
         <v>129</v>
       </c>
       <c r="C726" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.25">
@@ -14103,7 +14103,7 @@
         <v>129</v>
       </c>
       <c r="C730" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.25">
@@ -14140,7 +14140,7 @@
         <v>129</v>
       </c>
       <c r="C734" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.25">
@@ -14177,7 +14177,7 @@
         <v>129</v>
       </c>
       <c r="C738" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.25">
@@ -14452,7 +14452,7 @@
         <v>382</v>
       </c>
       <c r="J767" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K767" t="s">
         <v>383</v>
@@ -14517,7 +14517,7 @@
         <v>129</v>
       </c>
       <c r="C774" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="775" spans="2:13" x14ac:dyDescent="0.25">
@@ -14525,10 +14525,10 @@
         <v>194</v>
       </c>
       <c r="G775" t="s">
+        <v>948</v>
+      </c>
+      <c r="H775" t="s">
         <v>949</v>
-      </c>
-      <c r="H775" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="776" spans="2:13" x14ac:dyDescent="0.25">
@@ -14600,7 +14600,7 @@
         <v>381</v>
       </c>
       <c r="J784" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K784" t="s">
         <v>383</v>
@@ -14679,7 +14679,7 @@
         <v>392</v>
       </c>
       <c r="J792" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K792" t="s">
         <v>393</v>
@@ -14768,7 +14768,7 @@
         <v>129</v>
       </c>
       <c r="C802" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="803" spans="2:13" x14ac:dyDescent="0.25">
@@ -14776,10 +14776,10 @@
         <v>194</v>
       </c>
       <c r="G803" t="s">
+        <v>956</v>
+      </c>
+      <c r="H803" t="s">
         <v>957</v>
-      </c>
-      <c r="H803" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="804" spans="2:13" x14ac:dyDescent="0.25">
@@ -14851,7 +14851,7 @@
         <v>391</v>
       </c>
       <c r="J812" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K812" t="s">
         <v>393</v>
@@ -14954,7 +14954,7 @@
         <v>405</v>
       </c>
       <c r="J823" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K823" t="s">
         <v>406</v>
@@ -15043,7 +15043,7 @@
         <v>129</v>
       </c>
       <c r="C833" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="834" spans="2:13" x14ac:dyDescent="0.25">
@@ -15051,10 +15051,10 @@
         <v>194</v>
       </c>
       <c r="G834" t="s">
+        <v>966</v>
+      </c>
+      <c r="H834" t="s">
         <v>967</v>
-      </c>
-      <c r="H834" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="835" spans="2:13" x14ac:dyDescent="0.25">
@@ -15126,7 +15126,7 @@
         <v>404</v>
       </c>
       <c r="J843" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K843" t="s">
         <v>414</v>
@@ -15229,7 +15229,7 @@
         <v>417</v>
       </c>
       <c r="J854" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K854" t="s">
         <v>418</v>
@@ -15318,7 +15318,7 @@
         <v>129</v>
       </c>
       <c r="C864" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="865" spans="2:13" x14ac:dyDescent="0.25">
@@ -15326,10 +15326,10 @@
         <v>194</v>
       </c>
       <c r="G865" t="s">
+        <v>975</v>
+      </c>
+      <c r="H865" t="s">
         <v>976</v>
-      </c>
-      <c r="H865" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="866" spans="2:13" x14ac:dyDescent="0.25">
@@ -15401,7 +15401,7 @@
         <v>417</v>
       </c>
       <c r="J874" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K874" t="s">
         <v>418</v>
@@ -15523,13 +15523,13 @@
         <v>470</v>
       </c>
       <c r="J888" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K888" t="s">
         <v>471</v>
       </c>
       <c r="L888" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M888" t="b">
         <v>0</v>
@@ -15580,7 +15580,7 @@
         <v>129</v>
       </c>
       <c r="C894" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="895" spans="1:13" x14ac:dyDescent="0.25">
@@ -15588,10 +15588,10 @@
         <v>194</v>
       </c>
       <c r="G895" t="s">
+        <v>978</v>
+      </c>
+      <c r="H895" t="s">
         <v>979</v>
-      </c>
-      <c r="H895" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="896" spans="1:13" x14ac:dyDescent="0.25">
@@ -15642,13 +15642,13 @@
         <v>468</v>
       </c>
       <c r="J901" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K901" t="s">
         <v>471</v>
       </c>
       <c r="L901" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M901" t="b">
         <v>0</v>
@@ -15721,7 +15721,7 @@
         <v>483</v>
       </c>
       <c r="J909" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K909" t="s">
         <v>484</v>
@@ -15738,7 +15738,7 @@
         <v>59</v>
       </c>
       <c r="E910" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F910" t="s">
         <v>486</v>
@@ -15749,7 +15749,7 @@
         <v>129</v>
       </c>
       <c r="C911" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="912" spans="2:13" x14ac:dyDescent="0.25">
@@ -15760,7 +15760,7 @@
         <v>481</v>
       </c>
       <c r="I912" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="913" spans="2:13" x14ac:dyDescent="0.25">
@@ -15773,7 +15773,7 @@
         <v>129</v>
       </c>
       <c r="C914" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="915" spans="2:13" x14ac:dyDescent="0.25">
@@ -15802,7 +15802,7 @@
         <v>129</v>
       </c>
       <c r="C918" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="919" spans="2:13" x14ac:dyDescent="0.25">
@@ -15810,10 +15810,10 @@
         <v>194</v>
       </c>
       <c r="G919" t="s">
+        <v>981</v>
+      </c>
+      <c r="H919" t="s">
         <v>982</v>
-      </c>
-      <c r="H919" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="920" spans="2:13" x14ac:dyDescent="0.25">
@@ -15864,7 +15864,7 @@
         <v>481</v>
       </c>
       <c r="J925" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K925" t="s">
         <v>484</v>
@@ -15881,7 +15881,7 @@
         <v>59</v>
       </c>
       <c r="E926" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F926" t="s">
         <v>486</v>
@@ -15892,7 +15892,7 @@
         <v>129</v>
       </c>
       <c r="C927" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="928" spans="2:13" x14ac:dyDescent="0.25">
@@ -15903,7 +15903,7 @@
         <v>481</v>
       </c>
       <c r="I928" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="929" spans="1:9" x14ac:dyDescent="0.25">
@@ -15916,7 +15916,7 @@
         <v>129</v>
       </c>
       <c r="C930" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="931" spans="1:9" x14ac:dyDescent="0.25">
@@ -15974,7 +15974,7 @@
         <v>129</v>
       </c>
       <c r="C938" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.25">
@@ -16011,7 +16011,7 @@
         <v>129</v>
       </c>
       <c r="C942" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.25">
@@ -16138,13 +16138,13 @@
         <v>470</v>
       </c>
       <c r="J955" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K955" t="s">
         <v>471</v>
       </c>
       <c r="L955" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M955" t="b">
         <v>0</v>
@@ -16195,7 +16195,7 @@
         <v>129</v>
       </c>
       <c r="C961" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="962" spans="2:13" x14ac:dyDescent="0.25">
@@ -16203,7 +16203,7 @@
         <v>129</v>
       </c>
       <c r="C962" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="963" spans="2:13" x14ac:dyDescent="0.25">
@@ -16211,10 +16211,10 @@
         <v>194</v>
       </c>
       <c r="G963" t="s">
+        <v>978</v>
+      </c>
+      <c r="H963" t="s">
         <v>979</v>
-      </c>
-      <c r="H963" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="964" spans="2:13" x14ac:dyDescent="0.25">
@@ -16286,13 +16286,13 @@
         <v>468</v>
       </c>
       <c r="J972" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K972" t="s">
         <v>471</v>
       </c>
       <c r="L972" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M972" t="b">
         <v>0</v>
@@ -16365,7 +16365,7 @@
         <v>483</v>
       </c>
       <c r="J980" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K980" t="s">
         <v>484</v>
@@ -16382,7 +16382,7 @@
         <v>59</v>
       </c>
       <c r="E981" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F981" t="s">
         <v>486</v>
@@ -16393,7 +16393,7 @@
         <v>129</v>
       </c>
       <c r="C982" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="983" spans="2:13" x14ac:dyDescent="0.25">
@@ -16404,7 +16404,7 @@
         <v>481</v>
       </c>
       <c r="I983" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="984" spans="2:13" x14ac:dyDescent="0.25">
@@ -16417,7 +16417,7 @@
         <v>129</v>
       </c>
       <c r="C985" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="986" spans="2:13" x14ac:dyDescent="0.25">
@@ -16454,7 +16454,7 @@
         <v>129</v>
       </c>
       <c r="C990" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="991" spans="2:13" x14ac:dyDescent="0.25">
@@ -16462,10 +16462,10 @@
         <v>194</v>
       </c>
       <c r="G991" t="s">
+        <v>981</v>
+      </c>
+      <c r="H991" t="s">
         <v>982</v>
-      </c>
-      <c r="H991" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="992" spans="2:13" x14ac:dyDescent="0.25">
@@ -16537,7 +16537,7 @@
         <v>481</v>
       </c>
       <c r="J1000" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K1000" t="s">
         <v>484</v>
@@ -16554,7 +16554,7 @@
         <v>59</v>
       </c>
       <c r="E1001" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F1001" t="s">
         <v>486</v>
@@ -16565,7 +16565,7 @@
         <v>129</v>
       </c>
       <c r="C1002" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1003" spans="2:13" x14ac:dyDescent="0.25">
@@ -16576,7 +16576,7 @@
         <v>481</v>
       </c>
       <c r="I1003" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="1004" spans="2:13" x14ac:dyDescent="0.25">
@@ -16589,7 +16589,7 @@
         <v>129</v>
       </c>
       <c r="C1005" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="1006" spans="2:13" x14ac:dyDescent="0.25">
@@ -16631,13 +16631,13 @@
     </row>
     <row r="1012" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1012" s="20" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B1012" t="s">
         <v>129</v>
       </c>
       <c r="C1012" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1013" spans="1:13" x14ac:dyDescent="0.25">
@@ -16694,13 +16694,13 @@
         <v>510</v>
       </c>
       <c r="J1018" t="s">
+        <v>986</v>
+      </c>
+      <c r="K1018" t="s">
         <v>987</v>
       </c>
-      <c r="K1018" t="s">
+      <c r="L1018" t="s">
         <v>988</v>
-      </c>
-      <c r="L1018" t="s">
-        <v>989</v>
       </c>
       <c r="M1018" t="b">
         <v>0</v>
@@ -16755,10 +16755,10 @@
         <v>194</v>
       </c>
       <c r="G1026" s="7" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1026" s="7" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="1027" spans="1:13" x14ac:dyDescent="0.25">
@@ -16769,7 +16769,7 @@
         <v>205</v>
       </c>
       <c r="F1027" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="1028" spans="1:13" x14ac:dyDescent="0.25">
@@ -16777,7 +16777,7 @@
         <v>129</v>
       </c>
       <c r="C1028" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="1029" spans="1:13" x14ac:dyDescent="0.25">
@@ -16788,13 +16788,13 @@
         <v>508</v>
       </c>
       <c r="J1029" t="s">
+        <v>986</v>
+      </c>
+      <c r="K1029" t="s">
         <v>987</v>
       </c>
-      <c r="K1029" t="s">
+      <c r="L1029" t="s">
         <v>988</v>
-      </c>
-      <c r="L1029" t="s">
-        <v>989</v>
       </c>
       <c r="M1029" t="b">
         <v>0</v>
@@ -16832,13 +16832,13 @@
     </row>
     <row r="1034" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1034" s="29" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1034" t="s">
         <v>991</v>
-      </c>
-      <c r="B1034" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1034" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="1035" spans="1:13" x14ac:dyDescent="0.25">
@@ -16895,13 +16895,13 @@
         <v>519</v>
       </c>
       <c r="J1040" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K1040" t="s">
+        <v>987</v>
+      </c>
+      <c r="L1040" t="s">
         <v>988</v>
-      </c>
-      <c r="L1040" t="s">
-        <v>989</v>
       </c>
       <c r="M1040" t="b">
         <v>0</v>
@@ -16956,10 +16956,10 @@
         <v>194</v>
       </c>
       <c r="G1048" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H1048" s="7" t="s">
         <v>1023</v>
-      </c>
-      <c r="H1048" s="7" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="1049" spans="1:13" x14ac:dyDescent="0.25">
@@ -16970,7 +16970,7 @@
         <v>205</v>
       </c>
       <c r="F1049" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="1050" spans="1:13" x14ac:dyDescent="0.25">
@@ -16978,7 +16978,7 @@
         <v>129</v>
       </c>
       <c r="C1050" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1051" spans="1:13" x14ac:dyDescent="0.25">
@@ -16989,13 +16989,13 @@
         <v>517</v>
       </c>
       <c r="J1051" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K1051" t="s">
+        <v>987</v>
+      </c>
+      <c r="L1051" t="s">
         <v>988</v>
-      </c>
-      <c r="L1051" t="s">
-        <v>989</v>
       </c>
       <c r="M1051" t="b">
         <v>0</v>
@@ -17033,13 +17033,13 @@
     </row>
     <row r="1056" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1056" s="20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B1056" t="s">
         <v>129</v>
       </c>
       <c r="C1056" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1057" spans="2:13" x14ac:dyDescent="0.25">
@@ -17096,13 +17096,13 @@
         <v>525</v>
       </c>
       <c r="J1062" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K1062" t="s">
+        <v>987</v>
+      </c>
+      <c r="L1062" t="s">
         <v>988</v>
-      </c>
-      <c r="L1062" t="s">
-        <v>989</v>
       </c>
       <c r="M1062" t="b">
         <v>0</v>
@@ -17157,10 +17157,10 @@
         <v>194</v>
       </c>
       <c r="G1070" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H1070" s="7" t="s">
         <v>1025</v>
-      </c>
-      <c r="H1070" s="7" t="s">
-        <v>1026</v>
       </c>
       <c r="I1070" s="7"/>
     </row>
@@ -17172,7 +17172,7 @@
         <v>205</v>
       </c>
       <c r="F1071" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="1072" spans="2:13" x14ac:dyDescent="0.25">
@@ -17180,7 +17180,7 @@
         <v>129</v>
       </c>
       <c r="C1072" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="1073" spans="1:13" x14ac:dyDescent="0.25">
@@ -17191,13 +17191,13 @@
         <v>523</v>
       </c>
       <c r="J1073" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K1073" t="s">
+        <v>987</v>
+      </c>
+      <c r="L1073" t="s">
         <v>988</v>
-      </c>
-      <c r="L1073" t="s">
-        <v>989</v>
       </c>
       <c r="M1073" t="b">
         <v>0</v>
@@ -17235,13 +17235,13 @@
     </row>
     <row r="1078" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1078" s="29" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B1078" t="s">
         <v>129</v>
       </c>
       <c r="C1078" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1079" spans="1:13" x14ac:dyDescent="0.25">
@@ -17298,13 +17298,13 @@
         <v>531</v>
       </c>
       <c r="J1084" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K1084" t="s">
+        <v>987</v>
+      </c>
+      <c r="L1084" t="s">
         <v>988</v>
-      </c>
-      <c r="L1084" t="s">
-        <v>989</v>
       </c>
       <c r="M1084" t="b">
         <v>0</v>
@@ -17359,10 +17359,10 @@
         <v>194</v>
       </c>
       <c r="G1092" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H1092" s="7" t="s">
         <v>1027</v>
-      </c>
-      <c r="H1092" s="7" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="1093" spans="1:13" x14ac:dyDescent="0.25">
@@ -17373,7 +17373,7 @@
         <v>205</v>
       </c>
       <c r="F1093" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1094" spans="1:13" x14ac:dyDescent="0.25">
@@ -17381,7 +17381,7 @@
         <v>129</v>
       </c>
       <c r="C1094" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="1095" spans="1:13" x14ac:dyDescent="0.25">
@@ -17392,13 +17392,13 @@
         <v>529</v>
       </c>
       <c r="J1095" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K1095" t="s">
+        <v>987</v>
+      </c>
+      <c r="L1095" t="s">
         <v>988</v>
-      </c>
-      <c r="L1095" t="s">
-        <v>989</v>
       </c>
       <c r="M1095" t="b">
         <v>0</v>
@@ -17436,13 +17436,13 @@
     </row>
     <row r="1100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1100" s="20" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1100" t="s">
         <v>1006</v>
-      </c>
-      <c r="B1100" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1100" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="1101" spans="1:13" x14ac:dyDescent="0.25">
@@ -17499,13 +17499,13 @@
         <v>537</v>
       </c>
       <c r="J1106" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K1106" t="s">
+        <v>987</v>
+      </c>
+      <c r="L1106" t="s">
         <v>988</v>
-      </c>
-      <c r="L1106" t="s">
-        <v>989</v>
       </c>
       <c r="M1106" t="b">
         <v>0</v>
@@ -17560,10 +17560,10 @@
         <v>194</v>
       </c>
       <c r="G1114" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H1114" s="7" t="s">
         <v>1029</v>
-      </c>
-      <c r="H1114" s="7" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="1115" spans="2:13" x14ac:dyDescent="0.25">
@@ -17574,7 +17574,7 @@
         <v>205</v>
       </c>
       <c r="F1115" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="1116" spans="2:13" x14ac:dyDescent="0.25">
@@ -17582,7 +17582,7 @@
         <v>129</v>
       </c>
       <c r="C1116" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="1117" spans="2:13" x14ac:dyDescent="0.25">
@@ -17593,13 +17593,13 @@
         <v>535</v>
       </c>
       <c r="J1117" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K1117" t="s">
+        <v>987</v>
+      </c>
+      <c r="L1117" t="s">
         <v>988</v>
-      </c>
-      <c r="L1117" t="s">
-        <v>989</v>
       </c>
       <c r="M1117" t="b">
         <v>0</v>
@@ -17815,7 +17815,7 @@
         <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -17857,7 +17857,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>128</v>
@@ -17872,10 +17872,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -17962,10 +17962,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -17977,10 +17977,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -17992,10 +17992,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -18007,10 +18007,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -18201,22 +18201,22 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B36" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D36" t="s">
         <v>1033</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B37" t="str">
         <f>"2"</f>
@@ -18321,22 +18321,22 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B44" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C44" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D44" t="s">
         <v>1038</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B45" t="str">
         <f>"2"</f>
@@ -18351,37 +18351,37 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B46" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D46" t="s">
         <v>814</v>
-      </c>
-      <c r="D46" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B47" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B48" t="str">
         <f>"3"</f>
@@ -18396,41 +18396,41 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B49" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B50" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B51" t="str">
         <f>"99"</f>
@@ -18447,34 +18447,34 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B52" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B53" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D53" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -18867,18 +18867,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>743</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -19011,42 +19011,42 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -19522,72 +19522,72 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>765</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C2" t="s">
         <v>768</v>
       </c>
-      <c r="C2" t="s">
-        <v>769</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="B3" t="s">
-        <v>768</v>
-      </c>
-      <c r="C3" t="s">
-        <v>769</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>766</v>
+      </c>
+      <c r="B4" t="s">
         <v>767</v>
       </c>
-      <c r="B4" t="s">
-        <v>768</v>
-      </c>
       <c r="C4" t="s">
+        <v>899</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>900</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -19678,7 +19678,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B2" t="s">
         <v>146</v>
@@ -19689,7 +19689,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B3" t="s">
         <v>146</v>
@@ -19700,7 +19700,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B4" t="s">
         <v>146</v>
@@ -19711,10 +19711,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -19722,7 +19722,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -19733,7 +19733,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B7" t="s">
         <v>145</v>
@@ -19744,7 +19744,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -19821,7 +19821,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -19887,7 +19887,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -19898,7 +19898,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -19909,7 +19909,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -19920,7 +19920,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -19997,7 +19997,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B31" t="s">
         <v>146</v>
@@ -20008,7 +20008,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B32" t="s">
         <v>146</v>
@@ -20019,7 +20019,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B33" t="s">
         <v>146</v>
@@ -20030,7 +20030,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B34" t="s">
         <v>145</v>
@@ -20074,7 +20074,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -20085,7 +20085,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B39" t="s">
         <v>76</v>
@@ -20206,7 +20206,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B50" t="s">
         <v>38</v>
@@ -20217,7 +20217,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
@@ -20228,7 +20228,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B52" t="s">
         <v>38</v>
@@ -20239,7 +20239,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
@@ -20250,7 +20250,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B54" t="s">
         <v>76</v>
@@ -20261,7 +20261,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B55" t="s">
         <v>76</v>
@@ -20316,7 +20316,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -20371,7 +20371,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -20382,7 +20382,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -21144,7 +21144,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B136" t="s">
         <v>38</v>
@@ -21177,7 +21177,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B139" t="s">
         <v>38</v>
@@ -21210,7 +21210,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B142" t="s">
         <v>38</v>
@@ -21243,7 +21243,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B145" t="s">
         <v>38</v>
@@ -21276,7 +21276,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B148" t="s">
         <v>38</v>
@@ -21331,7 +21331,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B154" t="s">
         <v>77</v>
@@ -21340,12 +21340,12 @@
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B155" t="s">
         <v>76</v>
@@ -21356,7 +21356,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B156" t="s">
         <v>76</v>
@@ -21367,7 +21367,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B157" t="s">
         <v>29</v>
@@ -21378,7 +21378,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B158" t="s">
         <v>29</v>
@@ -21389,7 +21389,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B159" t="s">
         <v>77</v>
@@ -21400,7 +21400,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B160" t="s">
         <v>77</v>
@@ -21411,7 +21411,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B161" t="s">
         <v>77</v>
@@ -21422,7 +21422,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B162" t="s">
         <v>77</v>
@@ -21433,7 +21433,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B163" t="s">
         <v>76</v>
@@ -21444,7 +21444,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B164" t="s">
         <v>29</v>
@@ -21455,7 +21455,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B165" t="s">
         <v>76</v>
@@ -21466,7 +21466,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B166" t="s">
         <v>76</v>
@@ -21477,7 +21477,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B167" t="s">
         <v>76</v>
@@ -21488,7 +21488,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B168" t="s">
         <v>38</v>
@@ -21499,10 +21499,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B169" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C169" t="b">
         <v>0</v>

--- a/app/config/tables/MADTRIAL_FU_VIS/Forms/MADTRIAL_FU_VIS/MADTRIAL_FU_VIS.xlsx
+++ b/app/config/tables/MADTRIAL_FU_VIS/Forms/MADTRIAL_FU_VIS/MADTRIAL_FU_VIS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC114A0A-C06D-4F91-9B6A-5DFDD443F6CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026DB7F9-7ABF-4429-A938-96B02D11A6B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4123" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4129" uniqueCount="1077">
   <si>
     <t>setting_name</t>
   </si>
@@ -2425,9 +2425,6 @@
     <t>A criança vomitou?</t>
   </si>
   <si>
-    <t>A criança tossou?</t>
-  </si>
-  <si>
     <t>A criança perdeu o seu apetite?</t>
   </si>
   <si>
@@ -2591,9 +2588,6 @@
   </si>
   <si>
     <t>data('DATSEGUI1')</t>
-  </si>
-  <si>
-    <t>Eduardo Gomes</t>
   </si>
   <si>
     <t>data('CONSTIP')=='1'</t>
@@ -3204,15 +3198,6 @@
     <t>data('febamarelng') == '2'</t>
   </si>
   <si>
-    <t>Igualdino S. Borges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laerte Lima Almeida </t>
-  </si>
-  <si>
-    <t>Jailson Sydenei Dias Martins</t>
-  </si>
-  <si>
     <t>adate.diffInDays(data('DOB'), data('BCG'))&lt;0 &amp;&amp; data('BCG') != null &amp;&amp; data('BCG') != 'D:2,M:2,Y:1922' &amp;&amp; data('obsbcg') !=2 &amp;&amp; not(adate.monthUnknown(data('BCG'))) &amp;&amp; not(adate.monthUnknown(data('DOB')))</t>
   </si>
   <si>
@@ -3298,6 +3283,27 @@
   </si>
   <si>
     <t>MADtrial - Seguimento Visita</t>
+  </si>
+  <si>
+    <t>Armando</t>
+  </si>
+  <si>
+    <t>Abdel</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Jailson</t>
+  </si>
+  <si>
+    <t>Laerte</t>
+  </si>
+  <si>
+    <t>Igualdino</t>
+  </si>
+  <si>
+    <t>A criança teve tosse?</t>
   </si>
 </sst>
 </file>
@@ -3803,7 +3809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -3869,7 +3875,7 @@
         <v>716</v>
       </c>
       <c r="D5" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3880,7 +3886,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3912,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P181"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
@@ -3994,7 +4000,7 @@
         <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="I2" s="4"/>
       <c r="O2" s="26"/>
@@ -4078,7 +4084,7 @@
         <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="I10" s="4"/>
       <c r="O10" s="26"/>
@@ -4162,7 +4168,7 @@
         <v>129</v>
       </c>
       <c r="C18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I18" s="4"/>
       <c r="O18" s="26"/>
@@ -4246,7 +4252,7 @@
         <v>129</v>
       </c>
       <c r="C26" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I26" s="4"/>
       <c r="O26" s="26"/>
@@ -4352,7 +4358,7 @@
         <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -4360,10 +4366,10 @@
         <v>194</v>
       </c>
       <c r="G40" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H40" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -4392,10 +4398,10 @@
         <v>194</v>
       </c>
       <c r="G44" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H44" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -4403,10 +4409,10 @@
         <v>194</v>
       </c>
       <c r="G45" t="s">
+        <v>803</v>
+      </c>
+      <c r="H45" t="s">
         <v>804</v>
-      </c>
-      <c r="H45" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -4465,7 +4471,7 @@
         <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -4473,10 +4479,10 @@
         <v>194</v>
       </c>
       <c r="G53" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H53" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -4489,10 +4495,10 @@
         <v>194</v>
       </c>
       <c r="G55" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H55" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -4511,10 +4517,10 @@
         <v>758</v>
       </c>
       <c r="G57" t="s">
+        <v>796</v>
+      </c>
+      <c r="H57" t="s">
         <v>797</v>
-      </c>
-      <c r="H57" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -4522,10 +4528,10 @@
         <v>145</v>
       </c>
       <c r="F58" t="s">
+        <v>843</v>
+      </c>
+      <c r="I58" t="s">
         <v>844</v>
-      </c>
-      <c r="I58" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -4538,7 +4544,7 @@
         <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -4551,13 +4557,13 @@
         <v>76</v>
       </c>
       <c r="F62" t="s">
+        <v>798</v>
+      </c>
+      <c r="G62" t="s">
         <v>799</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>800</v>
-      </c>
-      <c r="H62" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -4575,7 +4581,7 @@
         <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -4583,7 +4589,7 @@
         <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -4599,10 +4605,10 @@
         <v>727</v>
       </c>
       <c r="G68" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H68" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -4610,7 +4616,7 @@
         <v>145</v>
       </c>
       <c r="F69" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -4639,7 +4645,7 @@
         <v>46</v>
       </c>
       <c r="F73" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G73" t="s">
         <v>45</v>
@@ -4671,7 +4677,7 @@
         <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="I77" s="4"/>
       <c r="O77" s="26"/>
@@ -4777,7 +4783,7 @@
         <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -4785,10 +4791,10 @@
         <v>194</v>
       </c>
       <c r="G91" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H91" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -4817,10 +4823,10 @@
         <v>194</v>
       </c>
       <c r="G95" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H95" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -4828,10 +4834,10 @@
         <v>194</v>
       </c>
       <c r="G96" t="s">
+        <v>803</v>
+      </c>
+      <c r="H96" t="s">
         <v>804</v>
-      </c>
-      <c r="H96" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -4890,7 +4896,7 @@
         <v>129</v>
       </c>
       <c r="C103" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -4898,10 +4904,10 @@
         <v>194</v>
       </c>
       <c r="G104" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H104" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -4914,10 +4920,10 @@
         <v>194</v>
       </c>
       <c r="G106" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H106" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -4936,10 +4942,10 @@
         <v>752</v>
       </c>
       <c r="G108" t="s">
+        <v>796</v>
+      </c>
+      <c r="H108" t="s">
         <v>797</v>
-      </c>
-      <c r="H108" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -4947,10 +4953,10 @@
         <v>145</v>
       </c>
       <c r="F109" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I109" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -4963,7 +4969,7 @@
         <v>129</v>
       </c>
       <c r="C111" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -4976,13 +4982,13 @@
         <v>76</v>
       </c>
       <c r="F113" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G113" t="s">
+        <v>799</v>
+      </c>
+      <c r="H113" t="s">
         <v>800</v>
-      </c>
-      <c r="H113" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -5000,7 +5006,7 @@
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -5008,7 +5014,7 @@
         <v>129</v>
       </c>
       <c r="C117" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -5024,10 +5030,10 @@
         <v>727</v>
       </c>
       <c r="G119" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H119" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -5035,7 +5041,7 @@
         <v>145</v>
       </c>
       <c r="F120" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -5064,7 +5070,7 @@
         <v>46</v>
       </c>
       <c r="F124" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G124" t="s">
         <v>45</v>
@@ -5096,7 +5102,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I128" s="4"/>
       <c r="O128" s="26"/>
@@ -5202,7 +5208,7 @@
         <v>129</v>
       </c>
       <c r="C141" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
@@ -5210,10 +5216,10 @@
         <v>194</v>
       </c>
       <c r="G142" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H142" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
@@ -5242,10 +5248,10 @@
         <v>194</v>
       </c>
       <c r="G146" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H146" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
@@ -5253,10 +5259,10 @@
         <v>194</v>
       </c>
       <c r="G147" t="s">
+        <v>803</v>
+      </c>
+      <c r="H147" t="s">
         <v>804</v>
-      </c>
-      <c r="H147" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
@@ -5315,7 +5321,7 @@
         <v>129</v>
       </c>
       <c r="C154" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
@@ -5323,10 +5329,10 @@
         <v>194</v>
       </c>
       <c r="G155" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H155" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
@@ -5339,10 +5345,10 @@
         <v>194</v>
       </c>
       <c r="G157" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H157" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
@@ -5361,10 +5367,10 @@
         <v>759</v>
       </c>
       <c r="G159" t="s">
+        <v>796</v>
+      </c>
+      <c r="H159" t="s">
         <v>797</v>
-      </c>
-      <c r="H159" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
@@ -5372,10 +5378,10 @@
         <v>145</v>
       </c>
       <c r="F160" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I160" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="161" spans="2:9" x14ac:dyDescent="0.25">
@@ -5388,7 +5394,7 @@
         <v>129</v>
       </c>
       <c r="C162" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="163" spans="2:9" x14ac:dyDescent="0.25">
@@ -5401,13 +5407,13 @@
         <v>76</v>
       </c>
       <c r="F164" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G164" t="s">
+        <v>799</v>
+      </c>
+      <c r="H164" t="s">
         <v>800</v>
-      </c>
-      <c r="H164" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="165" spans="2:9" x14ac:dyDescent="0.25">
@@ -5425,7 +5431,7 @@
         <v>129</v>
       </c>
       <c r="C167" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="168" spans="2:9" x14ac:dyDescent="0.25">
@@ -5433,7 +5439,7 @@
         <v>129</v>
       </c>
       <c r="C168" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="169" spans="2:9" x14ac:dyDescent="0.25">
@@ -5449,10 +5455,10 @@
         <v>727</v>
       </c>
       <c r="G170" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H170" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.25">
@@ -5460,7 +5466,7 @@
         <v>145</v>
       </c>
       <c r="F171" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -5489,7 +5495,7 @@
         <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G175" t="s">
         <v>45</v>
@@ -5518,7 +5524,7 @@
         <v>129</v>
       </c>
       <c r="C179" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
@@ -5541,9 +5547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BD2D90-2DF4-4696-A416-5A200C7AA064}">
   <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K174" sqref="K174"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5635,7 +5641,7 @@
         <v>171</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -5643,7 +5649,7 @@
         <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -5652,16 +5658,16 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F5" t="s">
+        <v>874</v>
+      </c>
+      <c r="G5" t="s">
         <v>876</v>
       </c>
-      <c r="G5" t="s">
-        <v>878</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -5669,45 +5675,45 @@
         <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E7" t="s">
         <v>766</v>
       </c>
       <c r="F7" t="s">
+        <v>885</v>
+      </c>
+      <c r="G7" t="s">
+        <v>886</v>
+      </c>
+      <c r="H7" t="s">
         <v>887</v>
-      </c>
-      <c r="G7" t="s">
-        <v>888</v>
-      </c>
-      <c r="H7" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E8" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F8" t="s">
         <v>730</v>
       </c>
       <c r="G8" t="s">
+        <v>889</v>
+      </c>
+      <c r="H8" t="s">
+        <v>890</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>891</v>
-      </c>
-      <c r="H8" t="s">
-        <v>892</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -5718,10 +5724,10 @@
         <v>727</v>
       </c>
       <c r="G9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -5729,10 +5735,10 @@
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F10" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -5740,7 +5746,7 @@
         <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -5762,10 +5768,10 @@
         <v>728</v>
       </c>
       <c r="G13" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H13" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -5784,7 +5790,7 @@
         <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -5796,13 +5802,13 @@
         <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="K17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L17" t="s">
         <v>189</v>
@@ -5828,7 +5834,7 @@
         <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -5846,7 +5852,7 @@
         <v>159</v>
       </c>
       <c r="K21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L21" t="s">
         <v>189</v>
@@ -5950,7 +5956,7 @@
         <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -6000,7 +6006,7 @@
         <v>129</v>
       </c>
       <c r="C39" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -6008,16 +6014,16 @@
         <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F40" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G40" t="s">
+        <v>819</v>
+      </c>
+      <c r="H40" t="s">
         <v>820</v>
-      </c>
-      <c r="H40" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -6030,10 +6036,10 @@
         <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F42" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G42" t="s">
         <v>744</v>
@@ -6052,7 +6058,7 @@
         <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -6063,7 +6069,7 @@
         <v>719</v>
       </c>
       <c r="K45" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L45" t="s">
         <v>189</v>
@@ -6133,7 +6139,7 @@
         <v>557</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -6156,7 +6162,7 @@
         <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -6169,10 +6175,10 @@
         <v>194</v>
       </c>
       <c r="G59" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H59" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -6180,7 +6186,7 @@
         <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -6188,10 +6194,10 @@
         <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F61" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G61" t="s">
         <v>748</v>
@@ -6205,7 +6211,7 @@
         <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -6222,13 +6228,13 @@
         <v>729</v>
       </c>
       <c r="K63" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="L63" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -6248,7 +6254,7 @@
         <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="M66" s="2"/>
     </row>
@@ -6257,16 +6263,16 @@
         <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F67" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G67" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H67" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="M67" s="2"/>
     </row>
@@ -6275,7 +6281,7 @@
         <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="M68" s="2"/>
     </row>
@@ -6284,22 +6290,22 @@
         <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="G69" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H69" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="K69" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="L69" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="P69" t="s">
         <v>181</v>
@@ -6355,7 +6361,7 @@
         <v>55</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
@@ -6505,7 +6511,7 @@
         <v>78</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>792</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -6576,7 +6582,7 @@
         <v>105</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
@@ -6584,7 +6590,7 @@
         <v>129</v>
       </c>
       <c r="C99" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -6595,7 +6601,7 @@
         <v>769</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G100" t="s">
         <v>61</v>
@@ -6647,7 +6653,7 @@
         <v>68</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -6719,7 +6725,7 @@
         <v>71</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
@@ -6866,7 +6872,7 @@
         <v>174</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
@@ -6938,7 +6944,7 @@
         <v>84</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
@@ -7127,7 +7133,7 @@
         <v>90</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
@@ -7170,7 +7176,7 @@
         <v>177</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
@@ -7206,10 +7212,10 @@
         <v>194</v>
       </c>
       <c r="G159" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H159" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
@@ -7286,10 +7292,10 @@
         <v>194</v>
       </c>
       <c r="G167" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H167" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="168" spans="2:16" x14ac:dyDescent="0.25">
@@ -7323,7 +7329,7 @@
         <v>103</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="170" spans="2:16" x14ac:dyDescent="0.25">
@@ -7360,10 +7366,10 @@
         <v>194</v>
       </c>
       <c r="G173" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="H173" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="174" spans="2:16" x14ac:dyDescent="0.25">
@@ -7371,22 +7377,22 @@
         <v>77</v>
       </c>
       <c r="F174" t="s">
+        <v>860</v>
+      </c>
+      <c r="G174" t="s">
+        <v>861</v>
+      </c>
+      <c r="H174" t="s">
         <v>862</v>
       </c>
-      <c r="G174" t="s">
+      <c r="K174" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L174" t="s">
         <v>863</v>
       </c>
-      <c r="H174" t="s">
+      <c r="M174" t="s">
         <v>864</v>
-      </c>
-      <c r="K174" t="s">
-        <v>1073</v>
-      </c>
-      <c r="L174" t="s">
-        <v>865</v>
-      </c>
-      <c r="M174" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="175" spans="2:16" x14ac:dyDescent="0.25">
@@ -7415,7 +7421,7 @@
         <v>180</v>
       </c>
       <c r="O175" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="P175" t="s">
         <v>181</v>
@@ -7441,13 +7447,13 @@
         <v>76</v>
       </c>
       <c r="F179" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="G179" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H179" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
@@ -7557,7 +7563,7 @@
         <v>197</v>
       </c>
       <c r="J4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K4" t="s">
         <v>198</v>
@@ -7614,7 +7620,7 @@
         <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -7622,10 +7628,10 @@
         <v>194</v>
       </c>
       <c r="G11" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -7676,7 +7682,7 @@
         <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K17" t="s">
         <v>198</v>
@@ -7755,7 +7761,7 @@
         <v>211</v>
       </c>
       <c r="J25" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K25" t="s">
         <v>212</v>
@@ -7772,7 +7778,7 @@
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F26" t="s">
         <v>214</v>
@@ -7783,7 +7789,7 @@
         <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
@@ -7794,7 +7800,7 @@
         <v>209</v>
       </c>
       <c r="I28" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -7807,7 +7813,7 @@
         <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
@@ -7836,7 +7842,7 @@
         <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -7844,10 +7850,10 @@
         <v>194</v>
       </c>
       <c r="G35" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H35" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -7898,7 +7904,7 @@
         <v>209</v>
       </c>
       <c r="J41" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K41" t="s">
         <v>212</v>
@@ -7915,7 +7921,7 @@
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F42" t="s">
         <v>214</v>
@@ -7926,7 +7932,7 @@
         <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -7937,7 +7943,7 @@
         <v>209</v>
       </c>
       <c r="I44" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -7950,7 +7956,7 @@
         <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -8008,7 +8014,7 @@
         <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -8045,7 +8051,7 @@
         <v>129</v>
       </c>
       <c r="C58" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -8098,7 +8104,7 @@
         <v>197</v>
       </c>
       <c r="J63" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K63" t="s">
         <v>198</v>
@@ -8163,7 +8169,7 @@
         <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -8171,10 +8177,10 @@
         <v>194</v>
       </c>
       <c r="G71" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H71" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -8246,7 +8252,7 @@
         <v>196</v>
       </c>
       <c r="J80" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K80" t="s">
         <v>198</v>
@@ -8325,7 +8331,7 @@
         <v>211</v>
       </c>
       <c r="J88" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K88" t="s">
         <v>212</v>
@@ -8342,7 +8348,7 @@
         <v>59</v>
       </c>
       <c r="E89" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F89" t="s">
         <v>214</v>
@@ -8353,7 +8359,7 @@
         <v>129</v>
       </c>
       <c r="C90" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -8364,7 +8370,7 @@
         <v>209</v>
       </c>
       <c r="I91" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -8377,7 +8383,7 @@
         <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -8414,7 +8420,7 @@
         <v>129</v>
       </c>
       <c r="C98" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -8422,10 +8428,10 @@
         <v>194</v>
       </c>
       <c r="G99" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H99" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -8497,7 +8503,7 @@
         <v>209</v>
       </c>
       <c r="J108" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K108" t="s">
         <v>212</v>
@@ -8514,7 +8520,7 @@
         <v>59</v>
       </c>
       <c r="E109" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F109" t="s">
         <v>214</v>
@@ -8525,7 +8531,7 @@
         <v>129</v>
       </c>
       <c r="C110" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -8536,7 +8542,7 @@
         <v>209</v>
       </c>
       <c r="I111" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -8549,7 +8555,7 @@
         <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -8619,7 +8625,7 @@
         <v>235</v>
       </c>
       <c r="J122" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K122" t="s">
         <v>236</v>
@@ -8676,7 +8682,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -8684,10 +8690,10 @@
         <v>194</v>
       </c>
       <c r="G129" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H129" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -8738,7 +8744,7 @@
         <v>234</v>
       </c>
       <c r="J135" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K135" t="s">
         <v>236</v>
@@ -8817,7 +8823,7 @@
         <v>246</v>
       </c>
       <c r="J143" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K143" t="s">
         <v>247</v>
@@ -8898,7 +8904,7 @@
         <v>129</v>
       </c>
       <c r="C152" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -8906,10 +8912,10 @@
         <v>194</v>
       </c>
       <c r="G153" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H153" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -8960,7 +8966,7 @@
         <v>245</v>
       </c>
       <c r="J159" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K159" t="s">
         <v>247</v>
@@ -9063,7 +9069,7 @@
         <v>259</v>
       </c>
       <c r="J170" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K170" t="s">
         <v>260</v>
@@ -9144,7 +9150,7 @@
         <v>129</v>
       </c>
       <c r="C179" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -9152,10 +9158,10 @@
         <v>194</v>
       </c>
       <c r="G180" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H180" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
@@ -9206,7 +9212,7 @@
         <v>258</v>
       </c>
       <c r="J186" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K186" t="s">
         <v>260</v>
@@ -9309,7 +9315,7 @@
         <v>270</v>
       </c>
       <c r="J197" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K197" t="s">
         <v>271</v>
@@ -9390,7 +9396,7 @@
         <v>129</v>
       </c>
       <c r="C206" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.25">
@@ -9398,10 +9404,10 @@
         <v>194</v>
       </c>
       <c r="G207" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H207" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="208" spans="2:13" x14ac:dyDescent="0.25">
@@ -9452,7 +9458,7 @@
         <v>269</v>
       </c>
       <c r="J213" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K213" t="s">
         <v>271</v>
@@ -9562,7 +9568,7 @@
         <v>129</v>
       </c>
       <c r="C226" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -9599,7 +9605,7 @@
         <v>129</v>
       </c>
       <c r="C230" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -9636,7 +9642,7 @@
         <v>129</v>
       </c>
       <c r="C234" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -9673,7 +9679,7 @@
         <v>129</v>
       </c>
       <c r="C238" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -9726,7 +9732,7 @@
         <v>235</v>
       </c>
       <c r="J243" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K243" t="s">
         <v>236</v>
@@ -9791,7 +9797,7 @@
         <v>129</v>
       </c>
       <c r="C250" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -9799,10 +9805,10 @@
         <v>194</v>
       </c>
       <c r="G251" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H251" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -9874,7 +9880,7 @@
         <v>234</v>
       </c>
       <c r="J260" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K260" t="s">
         <v>236</v>
@@ -9953,7 +9959,7 @@
         <v>246</v>
       </c>
       <c r="J268" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K268" t="s">
         <v>247</v>
@@ -10042,7 +10048,7 @@
         <v>129</v>
       </c>
       <c r="C278" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="279" spans="2:13" x14ac:dyDescent="0.25">
@@ -10050,10 +10056,10 @@
         <v>194</v>
       </c>
       <c r="G279" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H279" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="280" spans="2:13" x14ac:dyDescent="0.25">
@@ -10125,7 +10131,7 @@
         <v>245</v>
       </c>
       <c r="J288" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K288" t="s">
         <v>247</v>
@@ -10228,7 +10234,7 @@
         <v>259</v>
       </c>
       <c r="J299" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K299" t="s">
         <v>260</v>
@@ -10317,7 +10323,7 @@
         <v>129</v>
       </c>
       <c r="C309" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="310" spans="2:13" x14ac:dyDescent="0.25">
@@ -10325,10 +10331,10 @@
         <v>194</v>
       </c>
       <c r="G310" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H310" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="311" spans="2:13" x14ac:dyDescent="0.25">
@@ -10400,7 +10406,7 @@
         <v>258</v>
       </c>
       <c r="J319" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="K319" t="s">
         <v>260</v>
@@ -10503,7 +10509,7 @@
         <v>270</v>
       </c>
       <c r="J330" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K330" t="s">
         <v>271</v>
@@ -10592,7 +10598,7 @@
         <v>129</v>
       </c>
       <c r="C340" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="341" spans="2:13" x14ac:dyDescent="0.25">
@@ -10600,10 +10606,10 @@
         <v>194</v>
       </c>
       <c r="G341" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H341" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="342" spans="2:13" x14ac:dyDescent="0.25">
@@ -10675,7 +10681,7 @@
         <v>269</v>
       </c>
       <c r="J350" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K350" t="s">
         <v>271</v>
@@ -10797,7 +10803,7 @@
         <v>303</v>
       </c>
       <c r="J364" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K364" t="s">
         <v>304</v>
@@ -10854,7 +10860,7 @@
         <v>129</v>
       </c>
       <c r="C370" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="371" spans="2:13" x14ac:dyDescent="0.25">
@@ -10862,10 +10868,10 @@
         <v>194</v>
       </c>
       <c r="G371" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H371" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="372" spans="2:13" x14ac:dyDescent="0.25">
@@ -10916,7 +10922,7 @@
         <v>302</v>
       </c>
       <c r="J377" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K377" t="s">
         <v>304</v>
@@ -10995,7 +11001,7 @@
         <v>313</v>
       </c>
       <c r="J385" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K385" t="s">
         <v>314</v>
@@ -11076,7 +11082,7 @@
         <v>129</v>
       </c>
       <c r="C394" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="395" spans="2:13" x14ac:dyDescent="0.25">
@@ -11084,10 +11090,10 @@
         <v>194</v>
       </c>
       <c r="G395" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H395" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="396" spans="2:13" x14ac:dyDescent="0.25">
@@ -11138,7 +11144,7 @@
         <v>312</v>
       </c>
       <c r="J401" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K401" t="s">
         <v>314</v>
@@ -11241,7 +11247,7 @@
         <v>326</v>
       </c>
       <c r="J412" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K412" t="s">
         <v>327</v>
@@ -11322,7 +11328,7 @@
         <v>129</v>
       </c>
       <c r="C421" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="422" spans="2:13" x14ac:dyDescent="0.25">
@@ -11330,10 +11336,10 @@
         <v>194</v>
       </c>
       <c r="G422" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H422" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="423" spans="2:13" x14ac:dyDescent="0.25">
@@ -11384,7 +11390,7 @@
         <v>325</v>
       </c>
       <c r="J428" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K428" t="s">
         <v>327</v>
@@ -11487,7 +11493,7 @@
         <v>337</v>
       </c>
       <c r="J439" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K439" t="s">
         <v>338</v>
@@ -11568,7 +11574,7 @@
         <v>129</v>
       </c>
       <c r="C448" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="449" spans="2:13" x14ac:dyDescent="0.25">
@@ -11576,10 +11582,10 @@
         <v>194</v>
       </c>
       <c r="G449" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H449" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="450" spans="2:13" x14ac:dyDescent="0.25">
@@ -11630,7 +11636,7 @@
         <v>336</v>
       </c>
       <c r="J455" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K455" t="s">
         <v>338</v>
@@ -11740,7 +11746,7 @@
         <v>129</v>
       </c>
       <c r="C468" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.25">
@@ -11777,7 +11783,7 @@
         <v>129</v>
       </c>
       <c r="C472" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.25">
@@ -11814,7 +11820,7 @@
         <v>129</v>
       </c>
       <c r="C476" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
@@ -11851,7 +11857,7 @@
         <v>129</v>
       </c>
       <c r="C480" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.25">
@@ -12052,7 +12058,7 @@
         <v>303</v>
       </c>
       <c r="J501" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K501" t="s">
         <v>304</v>
@@ -12117,7 +12123,7 @@
         <v>129</v>
       </c>
       <c r="C508" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.25">
@@ -12125,10 +12131,10 @@
         <v>194</v>
       </c>
       <c r="G509" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H509" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.25">
@@ -12200,7 +12206,7 @@
         <v>302</v>
       </c>
       <c r="J518" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K518" t="s">
         <v>304</v>
@@ -12279,7 +12285,7 @@
         <v>313</v>
       </c>
       <c r="J526" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K526" t="s">
         <v>314</v>
@@ -12368,7 +12374,7 @@
         <v>129</v>
       </c>
       <c r="C536" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="537" spans="2:9" x14ac:dyDescent="0.25">
@@ -12376,10 +12382,10 @@
         <v>194</v>
       </c>
       <c r="G537" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H537" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="538" spans="2:9" x14ac:dyDescent="0.25">
@@ -12451,7 +12457,7 @@
         <v>312</v>
       </c>
       <c r="J546" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K546" t="s">
         <v>314</v>
@@ -12554,7 +12560,7 @@
         <v>326</v>
       </c>
       <c r="J557" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K557" t="s">
         <v>327</v>
@@ -12643,7 +12649,7 @@
         <v>129</v>
       </c>
       <c r="C567" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="568" spans="2:9" x14ac:dyDescent="0.25">
@@ -12651,10 +12657,10 @@
         <v>194</v>
       </c>
       <c r="G568" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H568" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="569" spans="2:9" x14ac:dyDescent="0.25">
@@ -12726,7 +12732,7 @@
         <v>325</v>
       </c>
       <c r="J577" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K577" t="s">
         <v>327</v>
@@ -12829,7 +12835,7 @@
         <v>337</v>
       </c>
       <c r="J588" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K588" t="s">
         <v>338</v>
@@ -12918,7 +12924,7 @@
         <v>129</v>
       </c>
       <c r="C598" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="599" spans="2:13" x14ac:dyDescent="0.25">
@@ -12926,10 +12932,10 @@
         <v>194</v>
       </c>
       <c r="G599" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H599" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="600" spans="2:13" x14ac:dyDescent="0.25">
@@ -13001,7 +13007,7 @@
         <v>336</v>
       </c>
       <c r="J608" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K608" t="s">
         <v>338</v>
@@ -13123,7 +13129,7 @@
         <v>382</v>
       </c>
       <c r="J622" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K622" t="s">
         <v>383</v>
@@ -13180,7 +13186,7 @@
         <v>129</v>
       </c>
       <c r="C628" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="629" spans="2:13" x14ac:dyDescent="0.25">
@@ -13188,10 +13194,10 @@
         <v>194</v>
       </c>
       <c r="G629" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H629" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="630" spans="2:13" x14ac:dyDescent="0.25">
@@ -13242,7 +13248,7 @@
         <v>381</v>
       </c>
       <c r="J635" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K635" t="s">
         <v>383</v>
@@ -13321,7 +13327,7 @@
         <v>392</v>
       </c>
       <c r="J643" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K643" t="s">
         <v>393</v>
@@ -13402,7 +13408,7 @@
         <v>129</v>
       </c>
       <c r="C652" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="653" spans="2:13" x14ac:dyDescent="0.25">
@@ -13410,10 +13416,10 @@
         <v>194</v>
       </c>
       <c r="G653" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H653" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="654" spans="2:13" x14ac:dyDescent="0.25">
@@ -13464,7 +13470,7 @@
         <v>391</v>
       </c>
       <c r="J659" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K659" t="s">
         <v>393</v>
@@ -13567,7 +13573,7 @@
         <v>405</v>
       </c>
       <c r="J670" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K670" t="s">
         <v>406</v>
@@ -13648,7 +13654,7 @@
         <v>129</v>
       </c>
       <c r="C679" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="680" spans="2:13" x14ac:dyDescent="0.25">
@@ -13656,10 +13662,10 @@
         <v>194</v>
       </c>
       <c r="G680" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H680" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="681" spans="2:13" x14ac:dyDescent="0.25">
@@ -13710,7 +13716,7 @@
         <v>404</v>
       </c>
       <c r="J686" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K686" t="s">
         <v>414</v>
@@ -13813,7 +13819,7 @@
         <v>417</v>
       </c>
       <c r="J697" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K697" t="s">
         <v>418</v>
@@ -13894,7 +13900,7 @@
         <v>129</v>
       </c>
       <c r="C706" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="707" spans="2:13" x14ac:dyDescent="0.25">
@@ -13902,10 +13908,10 @@
         <v>194</v>
       </c>
       <c r="G707" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H707" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="708" spans="2:13" x14ac:dyDescent="0.25">
@@ -13956,7 +13962,7 @@
         <v>417</v>
       </c>
       <c r="J713" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K713" t="s">
         <v>418</v>
@@ -14066,7 +14072,7 @@
         <v>129</v>
       </c>
       <c r="C726" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.25">
@@ -14103,7 +14109,7 @@
         <v>129</v>
       </c>
       <c r="C730" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.25">
@@ -14140,7 +14146,7 @@
         <v>129</v>
       </c>
       <c r="C734" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.25">
@@ -14177,7 +14183,7 @@
         <v>129</v>
       </c>
       <c r="C738" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.25">
@@ -14452,7 +14458,7 @@
         <v>382</v>
       </c>
       <c r="J767" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K767" t="s">
         <v>383</v>
@@ -14517,7 +14523,7 @@
         <v>129</v>
       </c>
       <c r="C774" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="775" spans="2:13" x14ac:dyDescent="0.25">
@@ -14525,10 +14531,10 @@
         <v>194</v>
       </c>
       <c r="G775" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H775" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="776" spans="2:13" x14ac:dyDescent="0.25">
@@ -14600,7 +14606,7 @@
         <v>381</v>
       </c>
       <c r="J784" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K784" t="s">
         <v>383</v>
@@ -14679,7 +14685,7 @@
         <v>392</v>
       </c>
       <c r="J792" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K792" t="s">
         <v>393</v>
@@ -14768,7 +14774,7 @@
         <v>129</v>
       </c>
       <c r="C802" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="803" spans="2:13" x14ac:dyDescent="0.25">
@@ -14776,10 +14782,10 @@
         <v>194</v>
       </c>
       <c r="G803" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H803" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="804" spans="2:13" x14ac:dyDescent="0.25">
@@ -14851,7 +14857,7 @@
         <v>391</v>
       </c>
       <c r="J812" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K812" t="s">
         <v>393</v>
@@ -14954,7 +14960,7 @@
         <v>405</v>
       </c>
       <c r="J823" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K823" t="s">
         <v>406</v>
@@ -15043,7 +15049,7 @@
         <v>129</v>
       </c>
       <c r="C833" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="834" spans="2:13" x14ac:dyDescent="0.25">
@@ -15051,10 +15057,10 @@
         <v>194</v>
       </c>
       <c r="G834" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H834" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="835" spans="2:13" x14ac:dyDescent="0.25">
@@ -15126,7 +15132,7 @@
         <v>404</v>
       </c>
       <c r="J843" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K843" t="s">
         <v>414</v>
@@ -15229,7 +15235,7 @@
         <v>417</v>
       </c>
       <c r="J854" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K854" t="s">
         <v>418</v>
@@ -15318,7 +15324,7 @@
         <v>129</v>
       </c>
       <c r="C864" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="865" spans="2:13" x14ac:dyDescent="0.25">
@@ -15326,10 +15332,10 @@
         <v>194</v>
       </c>
       <c r="G865" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H865" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="866" spans="2:13" x14ac:dyDescent="0.25">
@@ -15401,7 +15407,7 @@
         <v>417</v>
       </c>
       <c r="J874" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K874" t="s">
         <v>418</v>
@@ -15523,7 +15529,7 @@
         <v>470</v>
       </c>
       <c r="J888" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K888" t="s">
         <v>471</v>
@@ -15580,7 +15586,7 @@
         <v>129</v>
       </c>
       <c r="C894" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="895" spans="1:13" x14ac:dyDescent="0.25">
@@ -15588,10 +15594,10 @@
         <v>194</v>
       </c>
       <c r="G895" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H895" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="896" spans="1:13" x14ac:dyDescent="0.25">
@@ -15642,7 +15648,7 @@
         <v>468</v>
       </c>
       <c r="J901" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K901" t="s">
         <v>471</v>
@@ -15721,7 +15727,7 @@
         <v>483</v>
       </c>
       <c r="J909" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K909" t="s">
         <v>484</v>
@@ -15738,7 +15744,7 @@
         <v>59</v>
       </c>
       <c r="E910" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F910" t="s">
         <v>486</v>
@@ -15749,7 +15755,7 @@
         <v>129</v>
       </c>
       <c r="C911" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="912" spans="2:13" x14ac:dyDescent="0.25">
@@ -15760,7 +15766,7 @@
         <v>481</v>
       </c>
       <c r="I912" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="913" spans="2:13" x14ac:dyDescent="0.25">
@@ -15773,7 +15779,7 @@
         <v>129</v>
       </c>
       <c r="C914" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="915" spans="2:13" x14ac:dyDescent="0.25">
@@ -15802,7 +15808,7 @@
         <v>129</v>
       </c>
       <c r="C918" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="919" spans="2:13" x14ac:dyDescent="0.25">
@@ -15810,10 +15816,10 @@
         <v>194</v>
       </c>
       <c r="G919" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H919" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="920" spans="2:13" x14ac:dyDescent="0.25">
@@ -15864,7 +15870,7 @@
         <v>481</v>
       </c>
       <c r="J925" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K925" t="s">
         <v>484</v>
@@ -15881,7 +15887,7 @@
         <v>59</v>
       </c>
       <c r="E926" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F926" t="s">
         <v>486</v>
@@ -15892,7 +15898,7 @@
         <v>129</v>
       </c>
       <c r="C927" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="928" spans="2:13" x14ac:dyDescent="0.25">
@@ -15903,7 +15909,7 @@
         <v>481</v>
       </c>
       <c r="I928" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="929" spans="1:9" x14ac:dyDescent="0.25">
@@ -15916,7 +15922,7 @@
         <v>129</v>
       </c>
       <c r="C930" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="931" spans="1:9" x14ac:dyDescent="0.25">
@@ -15974,7 +15980,7 @@
         <v>129</v>
       </c>
       <c r="C938" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="939" spans="1:9" x14ac:dyDescent="0.25">
@@ -16011,7 +16017,7 @@
         <v>129</v>
       </c>
       <c r="C942" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="943" spans="1:9" x14ac:dyDescent="0.25">
@@ -16138,7 +16144,7 @@
         <v>470</v>
       </c>
       <c r="J955" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K955" t="s">
         <v>471</v>
@@ -16195,7 +16201,7 @@
         <v>129</v>
       </c>
       <c r="C961" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="962" spans="2:13" x14ac:dyDescent="0.25">
@@ -16203,7 +16209,7 @@
         <v>129</v>
       </c>
       <c r="C962" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="963" spans="2:13" x14ac:dyDescent="0.25">
@@ -16211,10 +16217,10 @@
         <v>194</v>
       </c>
       <c r="G963" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H963" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="964" spans="2:13" x14ac:dyDescent="0.25">
@@ -16286,7 +16292,7 @@
         <v>468</v>
       </c>
       <c r="J972" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K972" t="s">
         <v>471</v>
@@ -16365,7 +16371,7 @@
         <v>483</v>
       </c>
       <c r="J980" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K980" t="s">
         <v>484</v>
@@ -16382,7 +16388,7 @@
         <v>59</v>
       </c>
       <c r="E981" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F981" t="s">
         <v>486</v>
@@ -16393,7 +16399,7 @@
         <v>129</v>
       </c>
       <c r="C982" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="983" spans="2:13" x14ac:dyDescent="0.25">
@@ -16404,7 +16410,7 @@
         <v>481</v>
       </c>
       <c r="I983" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="984" spans="2:13" x14ac:dyDescent="0.25">
@@ -16417,7 +16423,7 @@
         <v>129</v>
       </c>
       <c r="C985" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="986" spans="2:13" x14ac:dyDescent="0.25">
@@ -16454,7 +16460,7 @@
         <v>129</v>
       </c>
       <c r="C990" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="991" spans="2:13" x14ac:dyDescent="0.25">
@@ -16462,10 +16468,10 @@
         <v>194</v>
       </c>
       <c r="G991" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H991" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="992" spans="2:13" x14ac:dyDescent="0.25">
@@ -16537,7 +16543,7 @@
         <v>481</v>
       </c>
       <c r="J1000" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K1000" t="s">
         <v>484</v>
@@ -16554,7 +16560,7 @@
         <v>59</v>
       </c>
       <c r="E1001" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F1001" t="s">
         <v>486</v>
@@ -16565,7 +16571,7 @@
         <v>129</v>
       </c>
       <c r="C1002" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="1003" spans="2:13" x14ac:dyDescent="0.25">
@@ -16576,7 +16582,7 @@
         <v>481</v>
       </c>
       <c r="I1003" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="1004" spans="2:13" x14ac:dyDescent="0.25">
@@ -16589,7 +16595,7 @@
         <v>129</v>
       </c>
       <c r="C1005" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="1006" spans="2:13" x14ac:dyDescent="0.25">
@@ -16631,13 +16637,13 @@
     </row>
     <row r="1012" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1012" s="20" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B1012" t="s">
         <v>129</v>
       </c>
       <c r="C1012" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="1013" spans="1:13" x14ac:dyDescent="0.25">
@@ -16694,13 +16700,13 @@
         <v>510</v>
       </c>
       <c r="J1018" t="s">
+        <v>984</v>
+      </c>
+      <c r="K1018" t="s">
+        <v>985</v>
+      </c>
+      <c r="L1018" t="s">
         <v>986</v>
-      </c>
-      <c r="K1018" t="s">
-        <v>987</v>
-      </c>
-      <c r="L1018" t="s">
-        <v>988</v>
       </c>
       <c r="M1018" t="b">
         <v>0</v>
@@ -16755,10 +16761,10 @@
         <v>194</v>
       </c>
       <c r="G1026" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H1026" s="7" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="1027" spans="1:13" x14ac:dyDescent="0.25">
@@ -16769,7 +16775,7 @@
         <v>205</v>
       </c>
       <c r="F1027" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="1028" spans="1:13" x14ac:dyDescent="0.25">
@@ -16777,7 +16783,7 @@
         <v>129</v>
       </c>
       <c r="C1028" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="1029" spans="1:13" x14ac:dyDescent="0.25">
@@ -16788,13 +16794,13 @@
         <v>508</v>
       </c>
       <c r="J1029" t="s">
+        <v>984</v>
+      </c>
+      <c r="K1029" t="s">
+        <v>985</v>
+      </c>
+      <c r="L1029" t="s">
         <v>986</v>
-      </c>
-      <c r="K1029" t="s">
-        <v>987</v>
-      </c>
-      <c r="L1029" t="s">
-        <v>988</v>
       </c>
       <c r="M1029" t="b">
         <v>0</v>
@@ -16832,13 +16838,13 @@
     </row>
     <row r="1034" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1034" s="29" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B1034" t="s">
         <v>129</v>
       </c>
       <c r="C1034" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="1035" spans="1:13" x14ac:dyDescent="0.25">
@@ -16895,13 +16901,13 @@
         <v>519</v>
       </c>
       <c r="J1040" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="K1040" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="L1040" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M1040" t="b">
         <v>0</v>
@@ -16956,10 +16962,10 @@
         <v>194</v>
       </c>
       <c r="G1048" s="7" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="H1048" s="7" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="1049" spans="1:13" x14ac:dyDescent="0.25">
@@ -16970,7 +16976,7 @@
         <v>205</v>
       </c>
       <c r="F1049" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="1050" spans="1:13" x14ac:dyDescent="0.25">
@@ -16978,7 +16984,7 @@
         <v>129</v>
       </c>
       <c r="C1050" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="1051" spans="1:13" x14ac:dyDescent="0.25">
@@ -16989,13 +16995,13 @@
         <v>517</v>
       </c>
       <c r="J1051" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="K1051" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="L1051" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M1051" t="b">
         <v>0</v>
@@ -17033,13 +17039,13 @@
     </row>
     <row r="1056" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1056" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1056" t="s">
         <v>995</v>
-      </c>
-      <c r="B1056" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1056" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="1057" spans="2:13" x14ac:dyDescent="0.25">
@@ -17096,13 +17102,13 @@
         <v>525</v>
       </c>
       <c r="J1062" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K1062" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="L1062" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M1062" t="b">
         <v>0</v>
@@ -17157,10 +17163,10 @@
         <v>194</v>
       </c>
       <c r="G1070" s="7" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H1070" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="I1070" s="7"/>
     </row>
@@ -17172,7 +17178,7 @@
         <v>205</v>
       </c>
       <c r="F1071" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="1072" spans="2:13" x14ac:dyDescent="0.25">
@@ -17180,7 +17186,7 @@
         <v>129</v>
       </c>
       <c r="C1072" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="1073" spans="1:13" x14ac:dyDescent="0.25">
@@ -17191,13 +17197,13 @@
         <v>523</v>
       </c>
       <c r="J1073" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="K1073" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="L1073" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M1073" t="b">
         <v>0</v>
@@ -17235,13 +17241,13 @@
     </row>
     <row r="1078" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1078" s="29" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B1078" t="s">
         <v>129</v>
       </c>
       <c r="C1078" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1079" spans="1:13" x14ac:dyDescent="0.25">
@@ -17298,13 +17304,13 @@
         <v>531</v>
       </c>
       <c r="J1084" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="K1084" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="L1084" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M1084" t="b">
         <v>0</v>
@@ -17359,10 +17365,10 @@
         <v>194</v>
       </c>
       <c r="G1092" s="7" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H1092" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="1093" spans="1:13" x14ac:dyDescent="0.25">
@@ -17373,7 +17379,7 @@
         <v>205</v>
       </c>
       <c r="F1093" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="1094" spans="1:13" x14ac:dyDescent="0.25">
@@ -17381,7 +17387,7 @@
         <v>129</v>
       </c>
       <c r="C1094" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="1095" spans="1:13" x14ac:dyDescent="0.25">
@@ -17392,13 +17398,13 @@
         <v>529</v>
       </c>
       <c r="J1095" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="K1095" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="L1095" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M1095" t="b">
         <v>0</v>
@@ -17436,13 +17442,13 @@
     </row>
     <row r="1100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1100" s="20" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B1100" t="s">
         <v>129</v>
       </c>
       <c r="C1100" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="1101" spans="1:13" x14ac:dyDescent="0.25">
@@ -17499,13 +17505,13 @@
         <v>537</v>
       </c>
       <c r="J1106" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="K1106" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="L1106" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M1106" t="b">
         <v>0</v>
@@ -17560,10 +17566,10 @@
         <v>194</v>
       </c>
       <c r="G1114" s="7" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H1114" s="7" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="1115" spans="2:13" x14ac:dyDescent="0.25">
@@ -17574,7 +17580,7 @@
         <v>205</v>
       </c>
       <c r="F1115" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="1116" spans="2:13" x14ac:dyDescent="0.25">
@@ -17582,7 +17588,7 @@
         <v>129</v>
       </c>
       <c r="C1116" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="1117" spans="2:13" x14ac:dyDescent="0.25">
@@ -17593,13 +17599,13 @@
         <v>535</v>
       </c>
       <c r="J1117" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="K1117" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="L1117" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M1117" t="b">
         <v>0</v>
@@ -17669,11 +17675,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17815,7 +17821,7 @@
         <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -17857,7 +17863,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>128</v>
@@ -17872,10 +17878,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -17954,7 +17960,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B19" t="str">
@@ -17962,10 +17968,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>848</v>
+        <v>1072</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>848</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -17977,10 +17983,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -17992,14 +17998,14 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1044</v>
+        <v>1074</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1044</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B22" t="str">
@@ -18007,38 +18013,40 @@
         <v>10</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1043</v>
+        <v>1075</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1043</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>543</v>
-      </c>
-      <c r="B23" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" t="s">
-        <v>196</v>
+      <c r="A23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="str">
+        <f>"4"</f>
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>543</v>
-      </c>
-      <c r="B24" t="s">
-        <v>547</v>
-      </c>
-      <c r="C24" t="s">
-        <v>547</v>
-      </c>
-      <c r="D24" t="s">
-        <v>547</v>
+      <c r="A24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -18046,13 +18054,13 @@
         <v>543</v>
       </c>
       <c r="B25" t="s">
-        <v>548</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>548</v>
+        <v>196</v>
       </c>
       <c r="D25" t="s">
-        <v>548</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -18060,13 +18068,13 @@
         <v>543</v>
       </c>
       <c r="B26" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C26" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D26" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -18074,13 +18082,13 @@
         <v>543</v>
       </c>
       <c r="B27" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C27" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D27" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -18088,13 +18096,13 @@
         <v>543</v>
       </c>
       <c r="B28" t="s">
-        <v>417</v>
+        <v>549</v>
       </c>
       <c r="C28" t="s">
-        <v>417</v>
+        <v>549</v>
       </c>
       <c r="D28" t="s">
-        <v>417</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -18102,13 +18110,13 @@
         <v>543</v>
       </c>
       <c r="B29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C29" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -18116,13 +18124,13 @@
         <v>543</v>
       </c>
       <c r="B30" t="s">
-        <v>555</v>
+        <v>417</v>
       </c>
       <c r="C30" t="s">
-        <v>482</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>483</v>
+        <v>417</v>
+      </c>
+      <c r="D30" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -18130,43 +18138,41 @@
         <v>543</v>
       </c>
       <c r="B31" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>553</v>
       </c>
       <c r="D31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>205</v>
-      </c>
-      <c r="B32" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <v>543</v>
+      </c>
+      <c r="B32" t="s">
+        <v>555</v>
       </c>
       <c r="C32" t="s">
-        <v>702</v>
-      </c>
-      <c r="D32" t="s">
-        <v>703</v>
+        <v>482</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B33" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <v>543</v>
+      </c>
+      <c r="B33" t="s">
+        <v>554</v>
       </c>
       <c r="C33" t="s">
-        <v>704</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>705</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -18174,54 +18180,54 @@
         <v>205</v>
       </c>
       <c r="B34" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>702</v>
+      </c>
+      <c r="D34" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>704</v>
+      </c>
+      <c r="D35" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>58</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>200</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B37" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C35" t="s">
-        <v>706</v>
-      </c>
-      <c r="D35" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B36" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B37" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
       <c r="C37" t="s">
         <v>706</v>
       </c>
@@ -18231,22 +18237,22 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>1029</v>
       </c>
       <c r="B38" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>708</v>
+        <v>1030</v>
       </c>
       <c r="D38" t="s">
-        <v>709</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>1029</v>
       </c>
       <c r="B39" t="str">
         <f>"2"</f>
@@ -18261,22 +18267,22 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="B40" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D40" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="B41" t="str">
         <f>"2"</f>
@@ -18291,22 +18297,22 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>395</v>
+        <v>316</v>
       </c>
       <c r="B42" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D42" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>395</v>
+        <v>316</v>
       </c>
       <c r="B43" t="str">
         <f>"2"</f>
@@ -18321,22 +18327,22 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1039</v>
+        <v>395</v>
       </c>
       <c r="B44" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>1037</v>
+        <v>712</v>
       </c>
       <c r="D44" t="s">
-        <v>1038</v>
+        <v>713</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1039</v>
+        <v>395</v>
       </c>
       <c r="B45" t="str">
         <f>"2"</f>
@@ -18351,145 +18357,161 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>812</v>
+        <v>1037</v>
       </c>
       <c r="B46" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>813</v>
+      <c r="C46" t="s">
+        <v>1035</v>
       </c>
       <c r="D46" t="s">
-        <v>814</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>812</v>
+        <v>1037</v>
       </c>
       <c r="B47" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" t="s">
+        <v>706</v>
+      </c>
+      <c r="D47" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>811</v>
+      </c>
+      <c r="B48" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D48" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>811</v>
+      </c>
+      <c r="B49" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="B48" t="str">
+      <c r="D49" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B50" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="B49" t="str">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B51" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>879</v>
-      </c>
-      <c r="B50" t="str">
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B52" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C52" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>896</v>
-      </c>
-      <c r="B51" t="str">
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>894</v>
+      </c>
+      <c r="B53" t="str">
         <f>"99"</f>
         <v>99</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>58</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>119</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B52" t="str">
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B54" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="B53" t="str">
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="B55" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="D55" t="s">
         <v>925</v>
       </c>
-      <c r="D53" t="s">
-        <v>927</v>
-      </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
@@ -18529,12 +18551,14 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="H62" s="2"/>
@@ -18552,67 +18576,71 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
@@ -18680,117 +18708,119 @@
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="8"/>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="8"/>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="8"/>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="8"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="8"/>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="8"/>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="8"/>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="8"/>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="8"/>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="8"/>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="8"/>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="8"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="8"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
@@ -18834,6 +18864,12 @@
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="8"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -19011,42 +19047,42 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -19536,7 +19572,7 @@
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B2" t="s">
         <v>767</v>
@@ -19570,24 +19606,24 @@
         <v>767</v>
       </c>
       <c r="C4" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B5" t="s">
         <v>767</v>
       </c>
       <c r="C5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>899</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>901</v>
       </c>
     </row>
   </sheetData>
@@ -19711,10 +19747,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -19722,7 +19758,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -19733,7 +19769,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B7" t="s">
         <v>145</v>
@@ -19744,7 +19780,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -19821,7 +19857,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
@@ -19887,7 +19923,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -19997,7 +20033,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B31" t="s">
         <v>146</v>
@@ -20008,7 +20044,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B32" t="s">
         <v>146</v>
@@ -20019,7 +20055,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B33" t="s">
         <v>146</v>
@@ -20074,7 +20110,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -20085,7 +20121,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B39" t="s">
         <v>76</v>
@@ -20239,7 +20275,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
@@ -20250,7 +20286,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B54" t="s">
         <v>76</v>
@@ -20261,7 +20297,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B55" t="s">
         <v>76</v>
@@ -20316,7 +20352,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B60" t="s">
         <v>38</v>
@@ -20371,7 +20407,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B65" t="s">
         <v>38</v>
@@ -20382,7 +20418,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
@@ -21144,7 +21180,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B136" t="s">
         <v>38</v>
@@ -21177,7 +21213,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B139" t="s">
         <v>38</v>
@@ -21210,7 +21246,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B142" t="s">
         <v>38</v>
@@ -21243,7 +21279,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B145" t="s">
         <v>38</v>
@@ -21276,7 +21312,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B148" t="s">
         <v>38</v>
@@ -21356,7 +21392,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B156" t="s">
         <v>76</v>
@@ -21466,7 +21502,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B166" t="s">
         <v>76</v>
@@ -21502,7 +21538,7 @@
         <v>730</v>
       </c>
       <c r="B169" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C169" t="b">
         <v>0</v>
